--- a/UniversalDataCatcher Notes.xlsx
+++ b/UniversalDataCatcher Notes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Database Service" sheetId="1" state="visible" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t>BotName</t>
   </si>
@@ -325,10 +325,16 @@
     <t xml:space="preserve">Həyət evi</t>
   </si>
   <si>
+    <t>HOME_SHARING</t>
+  </si>
+  <si>
     <t>Torpaq</t>
   </si>
   <si>
     <t>Qaraj</t>
+  </si>
+  <si>
+    <t>sual</t>
   </si>
   <si>
     <t>Digər</t>
@@ -498,7 +504,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -530,12 +536,6 @@
     </xf>
     <xf fontId="0" fillId="0" borderId="7" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="6" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="5" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf fontId="0" fillId="0" borderId="8" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -558,9 +558,6 @@
     </xf>
     <xf fontId="0" fillId="0" borderId="12" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="12" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1877,7 +1874,7 @@
       <c r="A14" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1926,7 +1923,7 @@
         <v>Bilinmir</v>
       </c>
       <c r="T14" s="9"/>
-      <c r="U14" s="14" t="s">
+      <c r="U14" s="1" t="s">
         <v>23</v>
       </c>
       <c r="V14" s="12" t="str">
@@ -2793,64 +2790,64 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="18" t="str">
+      <c r="B29" s="14"/>
+      <c r="C29" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="16" t="str">
         <f t="shared" si="0"/>
         <v>Düzgündür</v>
       </c>
-      <c r="E29" s="16"/>
-      <c r="F29" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="18" t="str">
+      <c r="E29" s="14"/>
+      <c r="F29" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="16" t="str">
         <f t="shared" si="1"/>
         <v>Düzgündür</v>
       </c>
-      <c r="H29" s="16"/>
-      <c r="I29" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J29" s="18" t="str">
+      <c r="H29" s="14"/>
+      <c r="I29" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J29" s="16" t="str">
         <f t="shared" si="2"/>
         <v>Düzgündür</v>
       </c>
-      <c r="K29" s="16"/>
-      <c r="L29" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="M29" s="18" t="str">
+      <c r="K29" s="14"/>
+      <c r="L29" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="M29" s="16" t="str">
         <f t="shared" si="3"/>
         <v>Düzgündür</v>
       </c>
-      <c r="N29" s="16"/>
-      <c r="O29" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="P29" s="18" t="str">
+      <c r="N29" s="14"/>
+      <c r="O29" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="P29" s="16" t="str">
         <f t="shared" si="4"/>
         <v>Düzgündür</v>
       </c>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="S29" s="18" t="str">
+      <c r="Q29" s="14"/>
+      <c r="R29" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="S29" s="16" t="str">
         <f t="shared" si="5"/>
         <v>Düzgündür</v>
       </c>
-      <c r="T29" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="U29" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="V29" s="18" t="str">
+      <c r="T29" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="U29" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="V29" s="16" t="str">
         <f t="shared" si="6"/>
         <v>Düzgündür</v>
       </c>
@@ -2873,7 +2870,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00670016-0013-4F0A-9E22-00F1001000D1}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00310095-007F-4476-BC40-00A000C40007}">
             <xm:f>"Bilinmir"</xm:f>
             <x14:dxf>
               <font>
@@ -2890,7 +2887,7 @@
           <xm:sqref>D:D</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="10" operator="equal" id="{004700B4-0011-4C5E-B431-00EB00040059}">
+          <x14:cfRule type="cellIs" priority="10" operator="equal" id="{00890065-00C0-4297-BE4E-0013004B0075}">
             <xm:f>"Düzgündür"</xm:f>
             <x14:dxf>
               <font>
@@ -2907,7 +2904,7 @@
           <xm:sqref>D2:D1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{003C00E6-0054-4A56-AC76-00B0006B000D}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00200002-00E3-42EF-9C3A-0008000E0091}">
             <xm:f>"Bilinmir"</xm:f>
             <x14:dxf>
               <font>
@@ -2924,7 +2921,7 @@
           <xm:sqref>G:G J:J M:M P:P S:S V:V</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="9" operator="equal" id="{0023003A-0083-4AE7-85C8-0022007A0005}">
+          <x14:cfRule type="cellIs" priority="9" operator="equal" id="{005B0074-0066-4B27-81A2-0075008F0005}">
             <xm:f>"Düzgündür"</xm:f>
             <x14:dxf>
               <font>
@@ -2941,7 +2938,7 @@
           <xm:sqref>G2:G29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{00BA00EE-0008-4A16-8BA8-009500E9002E}">
+          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{009600C8-0019-42D1-AED6-00150065001D}">
             <xm:f>"Düzgündür"</xm:f>
             <x14:dxf>
               <font>
@@ -2958,7 +2955,7 @@
           <xm:sqref>J2:J29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{00250078-0092-4E80-80B7-0056007500C9}">
+          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{009F008E-00A3-45DF-BD5B-00E700BD004B}">
             <xm:f>"Düzgündür"</xm:f>
             <x14:dxf>
               <font>
@@ -2975,7 +2972,7 @@
           <xm:sqref>M2:M29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{006D0000-0093-49D4-9938-0021005F00EC}">
+          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{0036005A-00FB-472A-B465-00AC00D500A5}">
             <xm:f>"Düzgündür"</xm:f>
             <x14:dxf>
               <font>
@@ -2992,7 +2989,7 @@
           <xm:sqref>P2:P29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{00FB00E0-00C3-4954-8595-00AA00EC00FF}">
+          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{00940046-00F0-42ED-AD65-006C007F0065}">
             <xm:f>"Düzgündür"</xm:f>
             <x14:dxf>
               <font>
@@ -3009,7 +3006,7 @@
           <xm:sqref>S2:S29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{0021002B-009B-4658-8CDE-001500E30040}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00E1006F-00A2-4147-8879-00F200A40069}">
             <xm:f>"Düzgündür"</xm:f>
             <x14:dxf>
               <font>
@@ -3124,7 +3121,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00910023-00DB-46CB-B744-007E00120040}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00BB0074-0006-48BC-B0F4-004B00BE00B1}">
             <xm:f>"Working"</xm:f>
             <x14:dxf>
               <font>
@@ -3141,7 +3138,7 @@
           <xm:sqref>B:B</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00E400C1-0005-4DAC-889B-007200C90063}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00B600FA-0066-40B5-B1E2-004B005D00E3}">
             <xm:f>"Not working"</xm:f>
             <x14:dxf>
               <fill>
@@ -3174,381 +3171,383 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col bestFit="1" customWidth="1" min="1" max="1" style="1" width="10.140625"/>
-    <col customWidth="1" min="2" max="2" style="19" width="55"/>
-    <col bestFit="1" customWidth="1" min="3" max="3" style="19" width="45.140625"/>
-    <col customWidth="1" min="4" max="4" style="19" width="45.140625"/>
+    <col customWidth="1" min="2" max="2" style="17" width="55"/>
+    <col bestFit="1" customWidth="1" min="3" max="3" style="17" width="45.140625"/>
+    <col customWidth="1" min="4" max="4" style="17" width="45.140625"/>
     <col min="5" max="5" style="1" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="18" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" ht="75" hidden="1">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="20" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="18" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="3" ht="42.75">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="18"/>
     </row>
     <row r="5" ht="45" hidden="1">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="20" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="18" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="6" hidden="1">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="20" t="s">
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="18" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="7" hidden="1">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="20" t="s">
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="18" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8" hidden="1">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="20" t="s">
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="18" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="9" ht="30" hidden="1">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="20" t="s">
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="18" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="10" ht="30" hidden="1">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="20" t="s">
+      <c r="D10" s="20"/>
+      <c r="E10" s="18" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="18"/>
     </row>
     <row r="12" ht="99.75">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="18"/>
     </row>
     <row r="13">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="21" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="18"/>
     </row>
     <row r="15">
-      <c r="A15" s="20"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="20"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="18"/>
     </row>
     <row r="16">
-      <c r="A16" s="20"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="20"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="18"/>
     </row>
     <row r="17">
-      <c r="A17" s="20"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="20"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="18"/>
     </row>
     <row r="18">
-      <c r="A18" s="20"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="20"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="18"/>
     </row>
     <row r="19">
-      <c r="A19" s="20"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="20"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="18"/>
     </row>
     <row r="20">
-      <c r="A20" s="20"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="20"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="18"/>
     </row>
     <row r="21">
-      <c r="A21" s="20"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="20"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="18"/>
     </row>
     <row r="22">
-      <c r="A22" s="20"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="20"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="18"/>
     </row>
     <row r="23">
-      <c r="A23" s="20"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="20"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="18"/>
     </row>
     <row r="24">
-      <c r="A24" s="20"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="20"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="18"/>
     </row>
     <row r="25">
-      <c r="A25" s="20"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="20"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="18"/>
     </row>
     <row r="26">
-      <c r="A26" s="20"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="20"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="18"/>
     </row>
     <row r="27">
-      <c r="A27" s="20"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="20"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="18"/>
     </row>
     <row r="28">
-      <c r="A28" s="20"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="20"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="18"/>
     </row>
     <row r="29">
-      <c r="A29" s="20"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="20"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="18"/>
     </row>
     <row r="30">
-      <c r="A30" s="20"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="20"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="18"/>
     </row>
     <row r="31">
-      <c r="A31" s="20"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="20"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="18"/>
     </row>
     <row r="32">
-      <c r="A32" s="20"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="20"/>
+      <c r="A32" s="18"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="18"/>
     </row>
     <row r="33">
-      <c r="A33" s="20"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="20"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="18"/>
     </row>
     <row r="34">
-      <c r="A34" s="20"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="20"/>
+      <c r="A34" s="18"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="18"/>
     </row>
     <row r="35">
-      <c r="A35" s="20"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="20"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="18"/>
     </row>
     <row r="36">
-      <c r="A36" s="20"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="20"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="18"/>
     </row>
     <row r="37">
-      <c r="A37" s="20"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="20"/>
+      <c r="A37" s="18"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="18"/>
     </row>
     <row r="38">
-      <c r="A38" s="20"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="20"/>
+      <c r="A38" s="18"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="18"/>
     </row>
     <row r="39">
-      <c r="A39" s="20"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="20"/>
+      <c r="A39" s="18"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="18"/>
     </row>
     <row r="40">
-      <c r="A40" s="20"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="20"/>
+      <c r="A40" s="18"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="18"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E10">
@@ -3569,7 +3568,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScale="100" workbookViewId="0">
       <selection activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -3578,7 +3577,7 @@
     <col bestFit="1" customWidth="1" min="1" max="1" width="10"/>
     <col bestFit="1" customWidth="1" min="2" max="2" width="7.7109375"/>
     <col bestFit="1" customWidth="1" min="3" max="3" width="11"/>
-    <col bestFit="1" customWidth="1" min="5" max="5" width="8.28515625"/>
+    <col bestFit="1" customWidth="1" min="5" max="5" width="15.00390625"/>
     <col bestFit="1" customWidth="1" min="6" max="6" width="11.7109375"/>
     <col bestFit="1" customWidth="1" min="7" max="7" style="1" width="18.28515625"/>
     <col customWidth="1" min="8" max="8" width="14.85546875"/>
@@ -3611,26 +3610,26 @@
       <c r="H1" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20" t="s">
+      <c r="J1" s="18"/>
+      <c r="K1" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="P1" s="23" t="s">
+      <c r="P1" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="Q1" s="18" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3653,31 +3652,33 @@
       <c r="F2" t="s">
         <v>85</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="20" t="s">
+      <c r="K2" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="M2" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="P2" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q2" s="20"/>
+      <c r="M2" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="21" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -3698,28 +3699,30 @@
       <c r="F3" t="s">
         <v>93</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="20" t="s">
+      <c r="K3" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="M3" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="N3" s="20" t="s">
+      <c r="N3" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="O3" s="23" t="s">
+      <c r="O3" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="P3" s="23" t="s">
+      <c r="P3" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="Q3" s="20"/>
+      <c r="Q3" s="21" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -3734,146 +3737,157 @@
       <c r="E4" t="s">
         <v>95</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="N4" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="O4" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="P4" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q4" s="20"/>
+      <c r="K4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q4" s="18"/>
     </row>
     <row r="5">
       <c r="D5" t="s">
         <v>96</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="E5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J5" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="N5" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="O5" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="P5" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q5" s="20"/>
+      <c r="K5" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="O5" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="P5" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5" s="18"/>
     </row>
     <row r="6">
       <c r="D6" t="s">
-        <v>97</v>
-      </c>
-      <c r="J6" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="J6" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="L6" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="M6" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="N6" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="O6" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="P6" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q6" s="20"/>
+      <c r="K6" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="P6" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q6" s="21" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7">
       <c r="D7" t="s">
-        <v>98</v>
-      </c>
-      <c r="J7" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="J7" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="L7" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="M7" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="N7" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="O7" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
+      <c r="K7" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="N7" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="O7" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q7" s="21" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="D8" t="s">
-        <v>99</v>
-      </c>
-      <c r="J8" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="K8" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="L8" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="N8" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="O8" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="P8" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q8" s="20"/>
+      <c r="K8" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="P8" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q8" s="21" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" ht="14.25">
-      <c r="J9" s="20" t="s">
+      <c r="J9" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="20"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
@@ -3884,7 +3898,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00140032-00DF-4B8E-8ADE-0073005D0064}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00D7002A-00DF-43FB-9A7A-000700A400CA}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -3901,7 +3915,7 @@
           <xm:sqref>K2:Q6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00030054-00F5-4F18-A8AA-007800A700CF}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00180031-00E1-4340-B2AF-005C00C900D2}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -3918,7 +3932,7 @@
           <xm:sqref>K7:Q7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00F2003D-0015-4585-97C0-006B00830085}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00E800BF-00B2-4796-BFA5-00670098008E}">
             <xm:f>"yoxdur"</xm:f>
             <x14:dxf>
               <font>
@@ -3935,7 +3949,7 @@
           <xm:sqref>K2:Q7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{000A00B3-00D1-4B25-9389-00A90051003C}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00A70089-00EC-44F6-9834-000B00F00033}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -3952,7 +3966,7 @@
           <xm:sqref>K8:Q8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00D700B5-0000-4BDB-A78A-0086007700FC}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{002E00C7-00FA-4CBB-8969-006F0044001B}">
             <xm:f>"yoxdur"</xm:f>
             <x14:dxf>
               <font>
@@ -3969,7 +3983,7 @@
           <xm:sqref>K8:Q8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00C700F1-003D-439D-89F4-00C600DC00A3}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{004500B7-009F-4024-8B03-007D001B0043}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -3986,7 +4000,7 @@
           <xm:sqref>N3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00B0004C-0067-4EF7-8617-0025006F0061}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{002B0018-0070-42D6-83F5-0064009100CC}">
             <xm:f>"yoxdur"</xm:f>
             <x14:dxf>
               <font>
@@ -4003,7 +4017,7 @@
           <xm:sqref>N3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{0047005E-0020-4B88-B6E8-00D0009E003D}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{001200B0-0054-4D57-9EE8-001700D4007D}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -4020,7 +4034,7 @@
           <xm:sqref>K9:Q9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00AA00F3-004E-4884-9182-00EA00DF008E}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00A000C6-000B-4F93-AEBB-00CC00A80040}">
             <xm:f>"yoxdur"</xm:f>
             <x14:dxf>
               <font>

--- a/UniversalDataCatcher Notes.xlsx
+++ b/UniversalDataCatcher Notes.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Database Service" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Image Download Service" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Problems|Solutions|Fixes" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Column Datas" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Database Service'!$A$2:$G$29</definedName>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="160">
   <si>
     <t>BotName</t>
   </si>
@@ -338,6 +339,180 @@
   </si>
   <si>
     <t>Digər</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            8"&gt;Ağcabədi</t>
+  </si>
+  <si>
+    <t>9"&gt;Ağdaş</t>
+  </si>
+  <si>
+    <t>10"&gt;Ağstafa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11" selected=""&gt;Ağsu</t>
+  </si>
+  <si>
+    <t>12"&gt;Astara</t>
+  </si>
+  <si>
+    <t>3"&gt;Bakı</t>
+  </si>
+  <si>
+    <t>13"&gt;Balakən</t>
+  </si>
+  <si>
+    <t>15"&gt;Beyləqan</t>
+  </si>
+  <si>
+    <t>16"&gt;Biləsuvar</t>
+  </si>
+  <si>
+    <t>14"&gt;Bərdə</t>
+  </si>
+  <si>
+    <t>17"&gt;Cəlilabad</t>
+  </si>
+  <si>
+    <t>18"&gt;Daşkəsən</t>
+  </si>
+  <si>
+    <t>61"&gt;Füzuli</t>
+  </si>
+  <si>
+    <t>20"&gt;Goranboy</t>
+  </si>
+  <si>
+    <t>21"&gt;Göyçay</t>
+  </si>
+  <si>
+    <t>22"&gt;Göygöl</t>
+  </si>
+  <si>
+    <t>19"&gt;Gədəbəy</t>
+  </si>
+  <si>
+    <t>6"&gt;Gəncə</t>
+  </si>
+  <si>
+    <t>23"&gt;Hacıqabul</t>
+  </si>
+  <si>
+    <t>24"&gt;İmişli</t>
+  </si>
+  <si>
+    <t>25"&gt;İsmayıllı</t>
+  </si>
+  <si>
+    <t>26"&gt;Kürdəmir</t>
+  </si>
+  <si>
+    <t>28"&gt;Lerik</t>
+  </si>
+  <si>
+    <t>27"&gt;Lənkəran</t>
+  </si>
+  <si>
+    <t>29"&gt;Masallı</t>
+  </si>
+  <si>
+    <t>30"&gt;Mingəçevir</t>
+  </si>
+  <si>
+    <t>31"&gt;Naftalan</t>
+  </si>
+  <si>
+    <t>7"&gt;Naxçıvan</t>
+  </si>
+  <si>
+    <t>32"&gt;Neftçala</t>
+  </si>
+  <si>
+    <t>33"&gt;Oğuz</t>
+  </si>
+  <si>
+    <t>34"&gt;Qax</t>
+  </si>
+  <si>
+    <t>35"&gt;Qazax</t>
+  </si>
+  <si>
+    <t>37"&gt;Qobustan</t>
+  </si>
+  <si>
+    <t>38"&gt;Quba</t>
+  </si>
+  <si>
+    <t>39"&gt;Qusar</t>
+  </si>
+  <si>
+    <t>36"&gt;Qəbələ</t>
+  </si>
+  <si>
+    <t>40"&gt;Saatlı</t>
+  </si>
+  <si>
+    <t>41"&gt;Sabirabad</t>
+  </si>
+  <si>
+    <t>45"&gt;Şabran</t>
+  </si>
+  <si>
+    <t>42"&gt;Salyan</t>
+  </si>
+  <si>
+    <t>46"&gt;Şamaxı</t>
+  </si>
+  <si>
+    <t>43"&gt;Samux</t>
+  </si>
+  <si>
+    <t>49"&gt;Şirvan</t>
+  </si>
+  <si>
+    <t>44"&gt;Siyəzən</t>
+  </si>
+  <si>
+    <t>4"&gt;Sumqayıt</t>
+  </si>
+  <si>
+    <t>47"&gt;Şəki</t>
+  </si>
+  <si>
+    <t>48"&gt;Şəmkir</t>
+  </si>
+  <si>
+    <t>51"&gt;Tovuz</t>
+  </si>
+  <si>
+    <t>50"&gt;Tərtər</t>
+  </si>
+  <si>
+    <t>52"&gt;Ucar</t>
+  </si>
+  <si>
+    <t>53"&gt;Xaçmaz</t>
+  </si>
+  <si>
+    <t>5"&gt;Xırdalan</t>
+  </si>
+  <si>
+    <t>54"&gt;Xızı</t>
+  </si>
+  <si>
+    <t>55"&gt;Xudat</t>
+  </si>
+  <si>
+    <t>56"&gt;Yardımlı</t>
+  </si>
+  <si>
+    <t>57"&gt;Yevlax</t>
+  </si>
+  <si>
+    <t>58"&gt;Zaqatala</t>
+  </si>
+  <si>
+    <t>59"&gt;Zərdab</t>
   </si>
 </sst>
 </file>
@@ -504,7 +679,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -559,6 +734,8 @@
     <xf fontId="0" fillId="0" borderId="12" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2870,7 +3047,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00310095-007F-4476-BC40-00A000C40007}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00320028-00AD-45FB-9D0F-007400B000CD}">
             <xm:f>"Bilinmir"</xm:f>
             <x14:dxf>
               <font>
@@ -2887,7 +3064,7 @@
           <xm:sqref>D:D</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="10" operator="equal" id="{00890065-00C0-4297-BE4E-0013004B0075}">
+          <x14:cfRule type="cellIs" priority="10" operator="equal" id="{00B200B5-0016-4297-8CFF-00ED001A0015}">
             <xm:f>"Düzgündür"</xm:f>
             <x14:dxf>
               <font>
@@ -2904,7 +3081,7 @@
           <xm:sqref>D2:D1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00200002-00E3-42EF-9C3A-0008000E0091}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{005000DE-00A2-4F43-8AE0-005200CC00A2}">
             <xm:f>"Bilinmir"</xm:f>
             <x14:dxf>
               <font>
@@ -2921,7 +3098,7 @@
           <xm:sqref>G:G J:J M:M P:P S:S V:V</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="9" operator="equal" id="{005B0074-0066-4B27-81A2-0075008F0005}">
+          <x14:cfRule type="cellIs" priority="9" operator="equal" id="{00B90095-0080-4670-A40D-005A00B300F8}">
             <xm:f>"Düzgündür"</xm:f>
             <x14:dxf>
               <font>
@@ -2938,7 +3115,7 @@
           <xm:sqref>G2:G29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{009600C8-0019-42D1-AED6-00150065001D}">
+          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{001E009F-0044-4FC2-BC24-004F00E20093}">
             <xm:f>"Düzgündür"</xm:f>
             <x14:dxf>
               <font>
@@ -2955,7 +3132,7 @@
           <xm:sqref>J2:J29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{009F008E-00A3-45DF-BD5B-00E700BD004B}">
+          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{00B20015-0064-4491-9B89-0092000E0060}">
             <xm:f>"Düzgündür"</xm:f>
             <x14:dxf>
               <font>
@@ -2972,7 +3149,7 @@
           <xm:sqref>M2:M29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{0036005A-00FB-472A-B465-00AC00D500A5}">
+          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{002E00E4-00BE-4469-8DE1-001500110041}">
             <xm:f>"Düzgündür"</xm:f>
             <x14:dxf>
               <font>
@@ -2989,7 +3166,7 @@
           <xm:sqref>P2:P29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{00940046-00F0-42ED-AD65-006C007F0065}">
+          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{0050004E-0011-498A-9097-00DF0068008D}">
             <xm:f>"Düzgündür"</xm:f>
             <x14:dxf>
               <font>
@@ -3006,7 +3183,7 @@
           <xm:sqref>S2:S29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00E1006F-00A2-4147-8879-00F200A40069}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00570067-007F-4D68-915A-008B00B5008E}">
             <xm:f>"Düzgündür"</xm:f>
             <x14:dxf>
               <font>
@@ -3121,7 +3298,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00BB0074-0006-48BC-B0F4-004B00BE00B1}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00890098-0012-4D2B-BC9D-00C9003D0002}">
             <xm:f>"Working"</xm:f>
             <x14:dxf>
               <font>
@@ -3138,7 +3315,7 @@
           <xm:sqref>B:B</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00B600FA-0066-40B5-B1E2-004B005D00E3}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00AD001F-0033-4E30-9C16-00DB006A009A}">
             <xm:f>"Not working"</xm:f>
             <x14:dxf>
               <fill>
@@ -3568,7 +3745,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="100" workbookViewId="0">
+    <sheetView zoomScale="100" workbookViewId="0">
       <selection activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -3581,8 +3758,8 @@
     <col bestFit="1" customWidth="1" min="6" max="6" width="11.7109375"/>
     <col bestFit="1" customWidth="1" min="7" max="7" style="1" width="18.28515625"/>
     <col customWidth="1" min="8" max="8" width="14.85546875"/>
-    <col customWidth="1" min="10" max="10" width="14.7109375"/>
-    <col bestFit="1" customWidth="1" min="13" max="13" width="10.140625"/>
+    <col customWidth="1" min="11" max="11" width="14.7109375"/>
+    <col bestFit="1" customWidth="1" min="14" max="14" width="10.140625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3610,26 +3787,30 @@
       <c r="H1" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18" t="s">
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="22"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="M1" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="N1" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="O1" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="P1" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="Q1" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="R1" s="18" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3655,18 +3836,18 @@
       <c r="G2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="H2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="18" t="s">
-        <v>13</v>
-      </c>
       <c r="L2" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="M2" s="18" t="s">
-        <v>13</v>
-      </c>
       <c r="N2" s="18" t="s">
         <v>13</v>
       </c>
@@ -3676,7 +3857,10 @@
       <c r="P2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="21" t="s">
+      <c r="Q2" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" s="21" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3699,14 +3883,14 @@
       <c r="F3" t="s">
         <v>93</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="H3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K3" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="18" t="s">
-        <v>13</v>
-      </c>
       <c r="L3" s="18" t="s">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M3" s="18" t="s">
         <v>87</v>
@@ -3720,7 +3904,10 @@
       <c r="P3" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="Q3" s="21" t="s">
+      <c r="Q3" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="R3" s="21" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3737,13 +3924,10 @@
       <c r="E4" t="s">
         <v>95</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="K4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="18" t="s">
+      <c r="L4" s="21" t="s">
         <v>13</v>
       </c>
       <c r="M4" s="18" t="s">
@@ -3755,10 +3939,15 @@
       <c r="O4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q4" s="18"/>
+      <c r="P4" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="R4" s="21" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5">
       <c r="D5" t="s">
@@ -3767,12 +3956,9 @@
       <c r="E5" t="s">
         <v>97</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="K5" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="18" t="s">
-        <v>13</v>
-      </c>
       <c r="L5" s="18" t="s">
         <v>13</v>
       </c>
@@ -3785,21 +3971,23 @@
       <c r="O5" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="P5" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q5" s="18"/>
+      <c r="P5" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="R5" s="21" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6">
       <c r="D6" t="s">
         <v>98</v>
       </c>
-      <c r="J6" s="18" t="s">
+      <c r="K6" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="18" t="s">
-        <v>13</v>
-      </c>
       <c r="L6" s="18" t="s">
         <v>13</v>
       </c>
@@ -3815,7 +4003,10 @@
       <c r="P6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="21" t="s">
+      <c r="Q6" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="R6" s="21" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3823,12 +4014,9 @@
       <c r="D7" t="s">
         <v>99</v>
       </c>
-      <c r="J7" s="18" t="s">
+      <c r="K7" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="18" t="s">
-        <v>13</v>
-      </c>
       <c r="L7" s="18" t="s">
         <v>13</v>
       </c>
@@ -3841,10 +4029,13 @@
       <c r="O7" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="21" t="s">
+      <c r="P7" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="Q7" s="21" t="s">
+      <c r="R7" s="21" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3852,12 +4043,9 @@
       <c r="D8" t="s">
         <v>101</v>
       </c>
-      <c r="J8" s="18" t="s">
+      <c r="K8" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="K8" s="18" t="s">
-        <v>13</v>
-      </c>
       <c r="L8" s="18" t="s">
         <v>13</v>
       </c>
@@ -3873,21 +4061,46 @@
       <c r="P8" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="Q8" s="21" t="s">
+      <c r="Q8" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="R8" s="21" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" ht="14.25">
-      <c r="J9" s="18" t="s">
+      <c r="K9" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="K9" s="18"/>
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
       <c r="N9" s="18"/>
       <c r="O9" s="18"/>
       <c r="P9" s="18"/>
       <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="K10" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="N10" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="R10" s="21" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
@@ -3898,7 +4111,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00D7002A-00DF-43FB-9A7A-000700A400CA}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{0092008D-0034-4287-8540-0019004B007E}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -3912,10 +4125,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K2:Q6</xm:sqref>
+          <xm:sqref>L2:R6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00180031-00E1-4340-B2AF-005C00C900D2}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00860047-00C8-4D74-97D9-006F000F00C7}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -3929,10 +4142,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K7:Q7</xm:sqref>
+          <xm:sqref>L7:R7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00E800BF-00B2-4796-BFA5-00670098008E}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00DF0006-0086-47EE-8C63-00DA008E0003}">
             <xm:f>"yoxdur"</xm:f>
             <x14:dxf>
               <font>
@@ -3946,10 +4159,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K2:Q7</xm:sqref>
+          <xm:sqref>L2:R7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00A70089-00EC-44F6-9834-000B00F00033}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00760057-006A-4523-92A7-00EE00C000B5}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -3963,10 +4176,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K8:Q8</xm:sqref>
+          <xm:sqref>L8:R8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{002E00C7-00FA-4CBB-8969-006F0044001B}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{0027001C-0053-46F1-802E-0052004300D2}">
             <xm:f>"yoxdur"</xm:f>
             <x14:dxf>
               <font>
@@ -3980,10 +4193,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K8:Q8</xm:sqref>
+          <xm:sqref>L8:R8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{004500B7-009F-4024-8B03-007D001B0043}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00530008-0086-426E-8EC7-004200DA0045}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -3997,10 +4210,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>N3</xm:sqref>
+          <xm:sqref>O3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{002B0018-0070-42D6-83F5-0064009100CC}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{005E0027-0029-4461-AB05-000C00E8006C}">
             <xm:f>"yoxdur"</xm:f>
             <x14:dxf>
               <font>
@@ -4014,10 +4227,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>N3</xm:sqref>
+          <xm:sqref>O3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{001200B0-0054-4D57-9EE8-001700D4007D}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00310054-00C9-45C7-92BD-009400F90098}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -4031,10 +4244,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K9:Q9</xm:sqref>
+          <xm:sqref>L9:R9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00A000C6-000B-4F93-AEBB-00CC00A80040}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00B800C1-00D5-404F-838C-00D0003A0091}">
             <xm:f>"yoxdur"</xm:f>
             <x14:dxf>
               <font>
@@ -4048,10 +4261,243 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K9:Q9</xm:sqref>
+          <xm:sqref>L9:R9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00650072-0020-42DE-B94F-004D00FC0010}">
+            <xm:f>"+"</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF006100"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFC6EFCE"/>
+                  <bgColor rgb="FFC6EFCE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L10:R10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00AC00C2-0063-460D-BCA9-00A800350044}">
+            <xm:f>"yoxdur"</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C5700"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFFFEB9C"/>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L10:R10</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="23"/>
+    </row>
+    <row r="2">
+      <c r="A2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J3" t="s">
+        <v>111</v>
+      </c>
+      <c r="K3" t="s">
+        <v>112</v>
+      </c>
+      <c r="L3" t="s">
+        <v>113</v>
+      </c>
+      <c r="M3" t="s">
+        <v>114</v>
+      </c>
+      <c r="N3" t="s">
+        <v>115</v>
+      </c>
+      <c r="O3" t="s">
+        <v>116</v>
+      </c>
+      <c r="P3" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>118</v>
+      </c>
+      <c r="R3" t="s">
+        <v>119</v>
+      </c>
+      <c r="S3" t="s">
+        <v>120</v>
+      </c>
+      <c r="T3" t="s">
+        <v>121</v>
+      </c>
+      <c r="U3" t="s">
+        <v>122</v>
+      </c>
+      <c r="V3" t="s">
+        <v>123</v>
+      </c>
+      <c r="W3" t="s">
+        <v>124</v>
+      </c>
+      <c r="X3" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>136</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>149</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>150</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>152</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>154</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>155</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>156</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>157</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>158</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/UniversalDataCatcher Notes.xlsx
+++ b/UniversalDataCatcher Notes.xlsx
@@ -3,19 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Database Service" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Image Download Service" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Problems|Solutions|Fixes" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Column Datas" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Database Service'!$A$2:$G$29</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Problems|Solutions|Fixes'!$A$1:$E$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Problems|Solutions|Fixes'!$A$1:$E$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Problems|Solutions|Fixes'!$A$1:$E$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Problems|Solutions|Fixes'!$A$1:$E$14</definedName>
   </definedNames>
   <calcPr/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>BotName</t>
   </si>
@@ -341,190 +340,34 @@
     <t>Digər</t>
   </si>
   <si>
-    <t xml:space="preserve">                            8"&gt;Ağcabədi</t>
-  </si>
-  <si>
-    <t>9"&gt;Ağdaş</t>
-  </si>
-  <si>
-    <t>10"&gt;Ağstafa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11" selected=""&gt;Ağsu</t>
-  </si>
-  <si>
-    <t>12"&gt;Astara</t>
-  </si>
-  <si>
-    <t>3"&gt;Bakı</t>
-  </si>
-  <si>
-    <t>13"&gt;Balakən</t>
-  </si>
-  <si>
-    <t>15"&gt;Beyləqan</t>
-  </si>
-  <si>
-    <t>16"&gt;Biləsuvar</t>
-  </si>
-  <si>
-    <t>14"&gt;Bərdə</t>
-  </si>
-  <si>
-    <t>17"&gt;Cəlilabad</t>
-  </si>
-  <si>
-    <t>18"&gt;Daşkəsən</t>
-  </si>
-  <si>
-    <t>61"&gt;Füzuli</t>
-  </si>
-  <si>
-    <t>20"&gt;Goranboy</t>
-  </si>
-  <si>
-    <t>21"&gt;Göyçay</t>
-  </si>
-  <si>
-    <t>22"&gt;Göygöl</t>
-  </si>
-  <si>
-    <t>19"&gt;Gədəbəy</t>
-  </si>
-  <si>
-    <t>6"&gt;Gəncə</t>
-  </si>
-  <si>
-    <t>23"&gt;Hacıqabul</t>
-  </si>
-  <si>
-    <t>24"&gt;İmişli</t>
-  </si>
-  <si>
-    <t>25"&gt;İsmayıllı</t>
-  </si>
-  <si>
-    <t>26"&gt;Kürdəmir</t>
-  </si>
-  <si>
-    <t>28"&gt;Lerik</t>
-  </si>
-  <si>
-    <t>27"&gt;Lənkəran</t>
-  </si>
-  <si>
-    <t>29"&gt;Masallı</t>
-  </si>
-  <si>
-    <t>30"&gt;Mingəçevir</t>
-  </si>
-  <si>
-    <t>31"&gt;Naftalan</t>
-  </si>
-  <si>
-    <t>7"&gt;Naxçıvan</t>
-  </si>
-  <si>
-    <t>32"&gt;Neftçala</t>
-  </si>
-  <si>
-    <t>33"&gt;Oğuz</t>
-  </si>
-  <si>
-    <t>34"&gt;Qax</t>
-  </si>
-  <si>
-    <t>35"&gt;Qazax</t>
-  </si>
-  <si>
-    <t>37"&gt;Qobustan</t>
-  </si>
-  <si>
-    <t>38"&gt;Quba</t>
-  </si>
-  <si>
-    <t>39"&gt;Qusar</t>
-  </si>
-  <si>
-    <t>36"&gt;Qəbələ</t>
-  </si>
-  <si>
-    <t>40"&gt;Saatlı</t>
-  </si>
-  <si>
-    <t>41"&gt;Sabirabad</t>
-  </si>
-  <si>
-    <t>45"&gt;Şabran</t>
-  </si>
-  <si>
-    <t>42"&gt;Salyan</t>
-  </si>
-  <si>
-    <t>46"&gt;Şamaxı</t>
-  </si>
-  <si>
-    <t>43"&gt;Samux</t>
-  </si>
-  <si>
-    <t>49"&gt;Şirvan</t>
-  </si>
-  <si>
-    <t>44"&gt;Siyəzən</t>
-  </si>
-  <si>
-    <t>4"&gt;Sumqayıt</t>
-  </si>
-  <si>
-    <t>47"&gt;Şəki</t>
-  </si>
-  <si>
-    <t>48"&gt;Şəmkir</t>
-  </si>
-  <si>
-    <t>51"&gt;Tovuz</t>
-  </si>
-  <si>
-    <t>50"&gt;Tərtər</t>
-  </si>
-  <si>
-    <t>52"&gt;Ucar</t>
-  </si>
-  <si>
-    <t>53"&gt;Xaçmaz</t>
-  </si>
-  <si>
-    <t>5"&gt;Xırdalan</t>
-  </si>
-  <si>
-    <t>54"&gt;Xızı</t>
-  </si>
-  <si>
-    <t>55"&gt;Xudat</t>
-  </si>
-  <si>
-    <t>56"&gt;Yardımlı</t>
-  </si>
-  <si>
-    <t>57"&gt;Yevlax</t>
-  </si>
-  <si>
-    <t>58"&gt;Zaqatala</t>
-  </si>
-  <si>
-    <t>59"&gt;Zərdab</t>
+    <t>Makler</t>
+  </si>
+  <si>
+    <t>Mulkiyyetci</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narahat etmesin</t>
+  </si>
+  <si>
+    <t>Barter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.000000"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -679,7 +522,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -731,11 +574,8 @@
     <xf fontId="0" fillId="0" borderId="12" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="12" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3047,7 +2887,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00320028-00AD-45FB-9D0F-007400B000CD}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{001C005C-0069-46C6-996D-0035005700CF}">
             <xm:f>"Bilinmir"</xm:f>
             <x14:dxf>
               <font>
@@ -3064,7 +2904,7 @@
           <xm:sqref>D:D</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="10" operator="equal" id="{00B200B5-0016-4297-8CFF-00ED001A0015}">
+          <x14:cfRule type="cellIs" priority="10" operator="equal" id="{003E0027-00D0-4807-9B27-001400110082}">
             <xm:f>"Düzgündür"</xm:f>
             <x14:dxf>
               <font>
@@ -3081,7 +2921,7 @@
           <xm:sqref>D2:D1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{005000DE-00A2-4F43-8AE0-005200CC00A2}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{006D002B-000F-4C07-AD2F-00AC000E000F}">
             <xm:f>"Bilinmir"</xm:f>
             <x14:dxf>
               <font>
@@ -3098,7 +2938,7 @@
           <xm:sqref>G:G J:J M:M P:P S:S V:V</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="9" operator="equal" id="{00B90095-0080-4670-A40D-005A00B300F8}">
+          <x14:cfRule type="cellIs" priority="9" operator="equal" id="{004A0005-001E-4DF3-A9F3-00010024005B}">
             <xm:f>"Düzgündür"</xm:f>
             <x14:dxf>
               <font>
@@ -3115,7 +2955,7 @@
           <xm:sqref>G2:G29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{001E009F-0044-4FC2-BC24-004F00E20093}">
+          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{00BE00E9-0016-4AEE-95E9-006B000800FE}">
             <xm:f>"Düzgündür"</xm:f>
             <x14:dxf>
               <font>
@@ -3132,7 +2972,7 @@
           <xm:sqref>J2:J29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{00B20015-0064-4491-9B89-0092000E0060}">
+          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{0071001F-00B3-4E8D-860A-001900D800C3}">
             <xm:f>"Düzgündür"</xm:f>
             <x14:dxf>
               <font>
@@ -3149,7 +2989,7 @@
           <xm:sqref>M2:M29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{002E00E4-00BE-4469-8DE1-001500110041}">
+          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{00540081-00D9-4F5B-9652-008B0092002C}">
             <xm:f>"Düzgündür"</xm:f>
             <x14:dxf>
               <font>
@@ -3166,7 +3006,7 @@
           <xm:sqref>P2:P29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{0050004E-0011-498A-9097-00DF0068008D}">
+          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{001800FE-000C-4B55-B041-0017009B00ED}">
             <xm:f>"Düzgündür"</xm:f>
             <x14:dxf>
               <font>
@@ -3183,7 +3023,7 @@
           <xm:sqref>S2:S29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00570067-007F-4D68-915A-008B00B5008E}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00B4001A-00F6-446F-A15D-00650039006C}">
             <xm:f>"Düzgündür"</xm:f>
             <x14:dxf>
               <font>
@@ -3298,7 +3138,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00890098-0012-4D2B-BC9D-00C9003D0002}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00E3006C-00E5-4D0E-81AE-00F200180047}">
             <xm:f>"Working"</xm:f>
             <x14:dxf>
               <font>
@@ -3315,7 +3155,7 @@
           <xm:sqref>B:B</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00AD001F-0033-4E30-9C16-00DB006A009A}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00A3001E-004B-448C-AA41-009100C900CE}">
             <xm:f>"Not working"</xm:f>
             <x14:dxf>
               <fill>
@@ -3503,7 +3343,7 @@
       <c r="D11" s="20"/>
       <c r="E11" s="18"/>
     </row>
-    <row r="12" ht="99.75">
+    <row r="12" ht="99.75" hidden="1">
       <c r="A12" s="18" t="s">
         <v>65</v>
       </c>
@@ -3514,9 +3354,11 @@
         <v>73</v>
       </c>
       <c r="D12" s="20"/>
-      <c r="E12" s="18"/>
-    </row>
-    <row r="13">
+      <c r="E12" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" hidden="1">
       <c r="A13" s="18" t="s">
         <v>70</v>
       </c>
@@ -3527,7 +3369,7 @@
         <v>75</v>
       </c>
       <c r="D13" s="20"/>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="18" t="s">
         <v>55</v>
       </c>
     </row>
@@ -3727,11 +3569,11 @@
       <c r="E40" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E10">
+  <autoFilter ref="A1:E14">
     <filterColumn colId="4">
       <filters blank="1"/>
     </filterColumn>
-    <sortState ref="A2:E40">
+    <sortState ref="A2:E44">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
@@ -3758,6 +3600,7 @@
     <col bestFit="1" customWidth="1" min="6" max="6" width="11.7109375"/>
     <col bestFit="1" customWidth="1" min="7" max="7" style="1" width="18.28515625"/>
     <col customWidth="1" min="8" max="8" width="14.85546875"/>
+    <col bestFit="1" min="10" max="10" width="10.57421875"/>
     <col customWidth="1" min="11" max="11" width="14.7109375"/>
     <col bestFit="1" customWidth="1" min="14" max="14" width="10.140625"/>
   </cols>
@@ -3790,7 +3633,7 @@
       <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="22"/>
+      <c r="J1" s="21"/>
       <c r="K1" s="18"/>
       <c r="L1" s="18" t="s">
         <v>64</v>
@@ -3860,7 +3703,7 @@
       <c r="Q2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="21" t="s">
+      <c r="R2" s="18" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3907,7 +3750,7 @@
       <c r="Q3" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="R3" s="21" t="s">
+      <c r="R3" s="18" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3924,10 +3767,13 @@
       <c r="E4" t="s">
         <v>95</v>
       </c>
+      <c r="F4" t="s">
+        <v>89</v>
+      </c>
       <c r="K4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="21" t="s">
+      <c r="L4" s="18" t="s">
         <v>13</v>
       </c>
       <c r="M4" s="18" t="s">
@@ -3939,13 +3785,13 @@
       <c r="O4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="21" t="s">
+      <c r="P4" s="18" t="s">
         <v>13</v>
       </c>
       <c r="Q4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="R4" s="21" t="s">
+      <c r="R4" s="18" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3971,13 +3817,13 @@
       <c r="O5" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="P5" s="21" t="s">
+      <c r="P5" s="18" t="s">
         <v>13</v>
       </c>
       <c r="Q5" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="R5" s="21" t="s">
+      <c r="R5" s="18" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4006,7 +3852,7 @@
       <c r="Q6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="R6" s="21" t="s">
+      <c r="R6" s="18" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4032,10 +3878,10 @@
       <c r="P7" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="Q7" s="21" t="s">
+      <c r="Q7" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="R7" s="21" t="s">
+      <c r="R7" s="18" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4064,7 +3910,7 @@
       <c r="Q8" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="R8" s="21" t="s">
+      <c r="R8" s="18" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4084,22 +3930,58 @@
       <c r="K10" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="M10" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="N10" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="O10" s="18"/>
+      <c r="L10" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="N10" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="O10" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="P10" s="18"/>
-      <c r="Q10" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="R10" s="21" t="s">
-        <v>13</v>
+      <c r="Q10" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="R10" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25">
+      <c r="I18">
+        <v>19055</v>
+      </c>
+      <c r="J18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25">
+      <c r="I19">
+        <v>19057</v>
+      </c>
+      <c r="J19" t="s">
+        <v>103</v>
+      </c>
+      <c r="K19" s="22"/>
+    </row>
+    <row r="20" ht="14.25">
+      <c r="I20">
+        <v>29522</v>
+      </c>
+      <c r="J20" t="s">
+        <v>104</v>
+      </c>
+      <c r="K20" s="22"/>
+    </row>
+    <row r="21" ht="14.25">
+      <c r="I21">
+        <v>29523</v>
+      </c>
+      <c r="J21" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -4111,7 +3993,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{0092008D-0034-4287-8540-0019004B007E}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00B70071-003C-43B7-BBA5-00E5003E0085}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -4128,7 +4010,7 @@
           <xm:sqref>L2:R6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00860047-00C8-4D74-97D9-006F000F00C7}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00270036-00F3-4952-B471-00E9005000A3}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -4145,7 +4027,7 @@
           <xm:sqref>L7:R7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00DF0006-0086-47EE-8C63-00DA008E0003}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00BB0056-004D-4692-97BC-0068003A0096}">
             <xm:f>"yoxdur"</xm:f>
             <x14:dxf>
               <font>
@@ -4162,7 +4044,7 @@
           <xm:sqref>L2:R7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00760057-006A-4523-92A7-00EE00C000B5}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{0083004C-004C-4BA2-A3A3-0085001B007C}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -4179,7 +4061,7 @@
           <xm:sqref>L8:R8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{0027001C-0053-46F1-802E-0052004300D2}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{005200A5-0096-4420-97C7-0035007700AB}">
             <xm:f>"yoxdur"</xm:f>
             <x14:dxf>
               <font>
@@ -4196,7 +4078,7 @@
           <xm:sqref>L8:R8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00530008-0086-426E-8EC7-004200DA0045}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{003E0087-00F4-439E-8BCD-00C000B7002B}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -4213,7 +4095,7 @@
           <xm:sqref>O3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{005E0027-0029-4461-AB05-000C00E8006C}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00220027-00D3-4222-95DD-004300A40036}">
             <xm:f>"yoxdur"</xm:f>
             <x14:dxf>
               <font>
@@ -4230,7 +4112,7 @@
           <xm:sqref>O3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00310054-00C9-45C7-92BD-009400F90098}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{001C0051-00C6-48A6-8122-003100F000BF}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -4247,7 +4129,7 @@
           <xm:sqref>L9:R9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00B800C1-00D5-404F-838C-00D0003A0091}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{000F00E4-0002-4D98-9450-00CD00AE00E8}">
             <xm:f>"yoxdur"</xm:f>
             <x14:dxf>
               <font>
@@ -4264,7 +4146,7 @@
           <xm:sqref>L9:R9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00650072-0020-42DE-B94F-004D00FC0010}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00220053-00E0-415B-A819-00B200D4008A}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -4281,7 +4163,7 @@
           <xm:sqref>L10:R10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00AC00C2-0063-460D-BCA9-00A800350044}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{003F0025-005F-4AC4-8DB6-004B00C000B1}">
             <xm:f>"yoxdur"</xm:f>
             <x14:dxf>
               <font>
@@ -4301,203 +4183,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="23"/>
-    </row>
-    <row r="2">
-      <c r="A2"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G3" t="s">
-        <v>108</v>
-      </c>
-      <c r="H3" t="s">
-        <v>109</v>
-      </c>
-      <c r="I3" t="s">
-        <v>110</v>
-      </c>
-      <c r="J3" t="s">
-        <v>111</v>
-      </c>
-      <c r="K3" t="s">
-        <v>112</v>
-      </c>
-      <c r="L3" t="s">
-        <v>113</v>
-      </c>
-      <c r="M3" t="s">
-        <v>114</v>
-      </c>
-      <c r="N3" t="s">
-        <v>115</v>
-      </c>
-      <c r="O3" t="s">
-        <v>116</v>
-      </c>
-      <c r="P3" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>118</v>
-      </c>
-      <c r="R3" t="s">
-        <v>119</v>
-      </c>
-      <c r="S3" t="s">
-        <v>120</v>
-      </c>
-      <c r="T3" t="s">
-        <v>121</v>
-      </c>
-      <c r="U3" t="s">
-        <v>122</v>
-      </c>
-      <c r="V3" t="s">
-        <v>123</v>
-      </c>
-      <c r="W3" t="s">
-        <v>124</v>
-      </c>
-      <c r="X3" t="s">
-        <v>125</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>129</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>132</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>133</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>134</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>136</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>137</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>138</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>139</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>140</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>141</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>142</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>143</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>145</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>146</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>148</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>149</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>150</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>151</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>152</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>153</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>154</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>155</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>156</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>157</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>158</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/UniversalDataCatcher Notes.xlsx
+++ b/UniversalDataCatcher Notes.xlsx
@@ -1,30 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anara\OneDrive\Desktop\Repositories\Projects4Azer\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871F9312-902A-436D-9E37-EDF1FE86DA41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Database Service" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Image Download Service" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Problems|Solutions|Fixes" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Column Datas" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Database Service" sheetId="1" r:id="rId1"/>
+    <sheet name="Image Download Service" sheetId="2" r:id="rId2"/>
+    <sheet name="Problems|Solutions|Fixes" sheetId="3" r:id="rId3"/>
+    <sheet name="Column Datas" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Database Service'!$A$2:$G$29</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Problems|Solutions|Fixes'!$A$1:$E$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Problems|Solutions|Fixes'!$A$1:$E$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Problems|Solutions|Fixes'!$A$1:$E$15</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="106">
   <si>
     <t>BotName</t>
   </si>
@@ -59,7 +75,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t xml:space="preserve">Data Düzgünlüyü</t>
+    <t>Data Düzgünlüyü</t>
   </si>
   <si>
     <t>address</t>
@@ -110,7 +126,7 @@
     <t>ipoteka</t>
   </si>
   <si>
-    <t xml:space="preserve">Kreditle olan?</t>
+    <t>Kreditle olan?</t>
   </si>
   <si>
     <t>?</t>
@@ -161,10 +177,10 @@
     <t>updated</t>
   </si>
   <si>
-    <t xml:space="preserve">Service Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not working</t>
+    <t>Service Status</t>
+  </si>
+  <si>
+    <t>Not working</t>
   </si>
   <si>
     <t>Working</t>
@@ -185,10 +201,10 @@
     <t>All</t>
   </si>
   <si>
-    <t xml:space="preserve">Status üçün məlumat əlavə olunmalıdır. Hal-hazırda məlumat çəkir ya yox? Sleep moddadırmı onu göstərən məlumat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OnStart _repeatEvery Set, 
+    <t>Status üçün məlumat əlavə olunmalıdır. Hal-hazırda məlumat çəkir ya yox? Sleep moddadırmı onu göstərən məlumat</t>
+  </si>
+  <si>
+    <t>OnStart _repeatEvery Set, 
 1st While _sleepTime = null, 
 Last while _sleepTime = now, 
 finally Reset all, 
@@ -201,25 +217,25 @@
     <t xml:space="preserve">Hamısı üçün stabil info log fikirləşmək lazımdır. </t>
   </si>
   <si>
-    <t xml:space="preserve">CurrentPosition, CurrentItemId, CurrentItemLink, OnCancel log info. OnStartLoginfo,OnİnsertLogİnfo, OnFindİdExist, OnOldContentWithRealDate.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Database sütunlarına görə uyğunlaşdırmaq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Column Datas bölməsi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Starting process yazan vaxtı current Item ++ etsin. Old Content və ya Existing Content edəndə currentItem++ etmir deyə 1-də qalır.</t>
+    <t>CurrentPosition, CurrentItemId, CurrentItemLink, OnCancel log info. OnStartLoginfo,OnİnsertLogİnfo, OnFindİdExist, OnOldContentWithRealDate.</t>
+  </si>
+  <si>
+    <t>Database sütunlarına görə uyğunlaşdırmaq</t>
+  </si>
+  <si>
+    <t>Column Datas bölməsi</t>
+  </si>
+  <si>
+    <t>Starting process yazan vaxtı current Item ++ etsin. Old Content və ya Existing Content edəndə currentItem++ etmir deyə 1-də qalır.</t>
   </si>
   <si>
     <t>Arenda</t>
   </si>
   <si>
-    <t xml:space="preserve">Stop servis edəndən sonra _progress 0-lanmır</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CurrentRow sayı artmır</t>
+    <t>Stop servis edəndən sonra _progress 0-lanmır</t>
+  </si>
+  <si>
+    <t>CurrentRow sayı artmır</t>
   </si>
   <si>
     <t>Bina</t>
@@ -228,44 +244,44 @@
     <t>Emlak</t>
   </si>
   <si>
-    <t xml:space="preserve">AdvItems is null halında 3 dəqiqə gözləmə yox 20 saniyə olsun</t>
+    <t>AdvItems is null halında 3 dəqiqə gözləmə yox 20 saniyə olsun</t>
   </si>
   <si>
     <t>YeniEmlak</t>
   </si>
   <si>
-    <t xml:space="preserve">Timeout 30 saniyəni keçəndən sonra yenidən page 1-ə qayıdır.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-11-23 14:01:46 YeniEmlakService timeout saniyəsini 300 saniyəyə qaldır.</t>
+    <t>Timeout 30 saniyəni keçəndən sonra yenidən page 1-ə qayıdır.</t>
+  </si>
+  <si>
+    <t>2025-11-23 14:01:46 YeniEmlakService timeout saniyəsini 300 saniyəyə qaldır.</t>
   </si>
   <si>
     <t>Lalafo</t>
   </si>
   <si>
-    <t xml:space="preserve">Post_create_date-də +00:00 da əlavə olunur. Yığışdırılmalıdır.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address üçün başlığına şəhəri də əlavə et</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Key comboboxdakı şəhərlərə görə list qur, 
+    <t>Post_create_date-də +00:00 da əlavə olunur. Yığışdırılmalıdır.</t>
+  </si>
+  <si>
+    <t>Address üçün başlığına şəhəri də əlavə et</t>
+  </si>
+  <si>
+    <t>Key comboboxdakı şəhərlərə görə list qur, 
 MainTitle hissəsində ilk 2-ci böyük hərflə başlayandan sonrakıları götür
 List ilə yoxla varsa həmin şəhərdi
 Yoxdursa başlığına Bakı yazıb maintitle-dakı ilə birləşdir,
 Ünvan ilə yenidən birləşdir</t>
   </si>
   <si>
-    <t xml:space="preserve">CurrentRow sayı 0-dan başlayır</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-dən başlasın</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poster_type düzəldilməlidir.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Təklifin növünə görə bir yol tapmaq lazımdır.</t>
+    <t>CurrentRow sayı 0-dan başlayır</t>
+  </si>
+  <si>
+    <t>1-dən başlasın</t>
+  </si>
+  <si>
+    <t>Poster_type düzəldilməlidir.</t>
+  </si>
+  <si>
+    <t>Təklifin növünə görə bir yol tapmaq lazımdır.</t>
   </si>
   <si>
     <t>phone_number</t>
@@ -280,7 +296,7 @@
     <t>var</t>
   </si>
   <si>
-    <t xml:space="preserve">Yeni tikili</t>
+    <t>Yeni tikili</t>
   </si>
   <si>
     <t>Mənzil</t>
@@ -292,7 +308,7 @@
     <t>vasitəçi</t>
   </si>
   <si>
-    <t xml:space="preserve">7 rəqəm ancaq</t>
+    <t>7 rəqəm ancaq</t>
   </si>
   <si>
     <t>yoxdur</t>
@@ -304,7 +320,7 @@
     <t>null</t>
   </si>
   <si>
-    <t xml:space="preserve">Köhnə tikili</t>
+    <t>Köhnə tikili</t>
   </si>
   <si>
     <t>Obyekt</t>
@@ -322,7 +338,7 @@
     <t>Satış</t>
   </si>
   <si>
-    <t xml:space="preserve">Həyət evi</t>
+    <t>Həyət evi</t>
   </si>
   <si>
     <t>HOME_SHARING</t>
@@ -334,9 +350,6 @@
     <t>Qaraj</t>
   </si>
   <si>
-    <t>sual</t>
-  </si>
-  <si>
     <t>Digər</t>
   </si>
   <si>
@@ -346,26 +359,29 @@
     <t>Mulkiyyetci</t>
   </si>
   <si>
-    <t xml:space="preserve">Narahat etmesin</t>
+    <t>Narahat etmesin</t>
   </si>
   <si>
     <t>Barter</t>
+  </si>
+  <si>
+    <t>post_create_date hamısında datetime olmalıdır.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
     </font>
@@ -380,42 +396,42 @@
   </fills>
   <borders count="13">
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="none"/>
+      <right/>
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
-      <right style="none"/>
+      <left/>
+      <right/>
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
+      <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -427,26 +443,26 @@
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
+      <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -455,9 +471,9 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -466,42 +482,42 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="none"/>
+      <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="none"/>
-      <top style="none"/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
+      <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="none"/>
+      <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -516,71 +532,233 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="22">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="5" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="6" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="7" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="6" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="8" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="10" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="11" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="12" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="12" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="12" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B050"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B050"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B050"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B050"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B050"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B050"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B050"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B050"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -593,291 +771,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1068,1998 +963,1885 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V29"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="O10" activeCellId="0" sqref="O10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" min="1" max="1" width="16.5703125"/>
-    <col bestFit="1" customWidth="1" min="2" max="2" style="1" width="12.421875"/>
-    <col bestFit="1" customWidth="1" min="3" max="3" style="1" width="6.140625"/>
-    <col bestFit="1" customWidth="1" min="4" max="4" width="15.421875"/>
-    <col customWidth="1" min="5" max="5" width="9.140625"/>
-    <col customWidth="1" min="6" max="6" width="6.42578125"/>
-    <col customWidth="1" min="7" max="7" width="16"/>
-    <col customWidth="1" min="8" max="8" width="8.42578125"/>
-    <col customWidth="1" min="9" max="9" width="6.42578125"/>
-    <col customWidth="1" min="10" max="10" width="16"/>
-    <col customWidth="1" min="11" max="11" width="8.42578125"/>
-    <col customWidth="1" min="12" max="12" width="6.42578125"/>
-    <col customWidth="1" min="13" max="13" width="16"/>
-    <col customWidth="1" min="14" max="14" width="8.42578125"/>
-    <col bestFit="1" customWidth="1" min="15" max="15" width="7.140625"/>
-    <col customWidth="1" min="16" max="16" width="16"/>
-    <col customWidth="1" min="17" max="17" width="8.42578125"/>
-    <col customWidth="1" min="18" max="18" width="6.42578125"/>
-    <col customWidth="1" min="19" max="19" width="16"/>
-    <col bestFit="1" customWidth="1" min="20" max="20" width="8.42578125"/>
-    <col bestFit="1" customWidth="1" min="21" max="21" width="6.7109375"/>
-    <col bestFit="1" customWidth="1" min="22" max="22" width="16"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" customWidth="1"/>
+    <col min="9" max="9" width="6.42578125" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" customWidth="1"/>
+    <col min="12" max="12" width="6.42578125" customWidth="1"/>
+    <col min="13" max="13" width="16" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" customWidth="1"/>
+    <col min="15" max="15" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16" customWidth="1"/>
+    <col min="17" max="17" width="8.42578125" customWidth="1"/>
+    <col min="18" max="18" width="6.42578125" customWidth="1"/>
+    <col min="19" max="19" width="16" customWidth="1"/>
+    <col min="20" max="20" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="17"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="2" t="s">
+      <c r="F1" s="17"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="5" t="s">
+      <c r="I1" s="17"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="6"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="5" t="s">
+      <c r="L1" s="20"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="5" t="s">
+      <c r="O1" s="20"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="6"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="5" t="s">
+      <c r="R1" s="20"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="U1" s="6"/>
-      <c r="V1" s="7"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="8" t="s">
+      <c r="U1" s="20"/>
+      <c r="V1" s="21"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="S2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="T2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="V2" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="9"/>
+      <c r="B3" s="3"/>
       <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="12" t="str">
+      <c r="D3" s="6" t="str">
         <f t="shared" ref="D3:D29" si="0">IF(C3="+","Düzgündür","Bilinmir")</f>
         <v>Düzgündür</v>
       </c>
-      <c r="E3" s="9"/>
+      <c r="E3" s="3"/>
       <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="12" t="str">
+      <c r="G3" s="6" t="str">
         <f t="shared" ref="G3:G29" si="1">IF(F3="+","Düzgündür","Bilinmir")</f>
         <v>Düzgündür</v>
       </c>
-      <c r="H3" s="9"/>
+      <c r="H3" s="3"/>
       <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="12" t="str">
+      <c r="J3" s="6" t="str">
         <f t="shared" ref="J3:J29" si="2">IF(I3="+","Düzgündür","Bilinmir")</f>
         <v>Düzgündür</v>
       </c>
-      <c r="K3" s="9"/>
+      <c r="K3" s="3"/>
       <c r="L3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="12" t="str">
+      <c r="M3" s="6" t="str">
         <f t="shared" ref="M3:M29" si="3">IF(L3="+","Düzgündür","Bilinmir")</f>
         <v>Düzgündür</v>
       </c>
-      <c r="N3" s="9"/>
+      <c r="N3" s="3"/>
       <c r="O3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="12" t="str">
+      <c r="P3" s="6" t="str">
         <f t="shared" ref="P3:P29" si="4">IF(O3="+","Düzgündür","Bilinmir")</f>
         <v>Düzgündür</v>
       </c>
-      <c r="Q3" s="9"/>
+      <c r="Q3" s="3"/>
       <c r="R3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="12" t="str">
+      <c r="S3" s="6" t="str">
         <f t="shared" ref="S3:S29" si="5">IF(R3="+","Düzgündür","Bilinmir")</f>
         <v>Düzgündür</v>
       </c>
-      <c r="T3" s="9" t="s">
+      <c r="T3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="V3" s="12" t="str">
+      <c r="V3" s="6" t="str">
         <f t="shared" ref="V3:V29" si="6">IF(U3="+","Düzgündür","Bilinmir")</f>
         <v>Düzgündür</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="3"/>
       <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="12" t="str">
+      <c r="D4" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Düzgündür</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="3"/>
       <c r="F4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="12" t="str">
+      <c r="G4" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Düzgündür</v>
       </c>
-      <c r="H4" s="9"/>
+      <c r="H4" s="3"/>
       <c r="I4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="12" t="str">
+      <c r="J4" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Düzgündür</v>
       </c>
-      <c r="K4" s="9"/>
+      <c r="K4" s="3"/>
       <c r="L4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="12" t="str">
+      <c r="M4" s="6" t="str">
         <f t="shared" si="3"/>
         <v>Düzgündür</v>
       </c>
-      <c r="N4" s="9"/>
+      <c r="N4" s="3"/>
       <c r="O4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="12" t="str">
+      <c r="P4" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Düzgündür</v>
       </c>
-      <c r="Q4" s="9"/>
+      <c r="Q4" s="3"/>
       <c r="R4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S4" s="12" t="str">
+      <c r="S4" s="6" t="str">
         <f t="shared" si="5"/>
         <v>Düzgündür</v>
       </c>
-      <c r="T4" s="9" t="s">
+      <c r="T4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="U4" s="1"/>
-      <c r="V4" s="12" t="str">
+      <c r="V4" s="6" t="str">
         <f t="shared" si="6"/>
         <v>Bilinmir</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="9"/>
+      <c r="B5" s="3"/>
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="12" t="str">
+      <c r="D5" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Düzgündür</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="3"/>
       <c r="F5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="12" t="str">
+      <c r="G5" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Düzgündür</v>
       </c>
-      <c r="H5" s="9"/>
+      <c r="H5" s="3"/>
       <c r="I5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="12" t="str">
+      <c r="J5" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Düzgündür</v>
       </c>
-      <c r="K5" s="9"/>
+      <c r="K5" s="3"/>
       <c r="L5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="12" t="str">
+      <c r="M5" s="6" t="str">
         <f t="shared" si="3"/>
         <v>Düzgündür</v>
       </c>
-      <c r="N5" s="9"/>
+      <c r="N5" s="3"/>
       <c r="O5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P5" s="12" t="str">
+      <c r="P5" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Düzgündür</v>
       </c>
-      <c r="Q5" s="9"/>
+      <c r="Q5" s="3"/>
       <c r="R5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S5" s="12" t="str">
+      <c r="S5" s="6" t="str">
         <f t="shared" si="5"/>
         <v>Düzgündür</v>
       </c>
-      <c r="T5" s="9" t="s">
+      <c r="T5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="U5" s="1"/>
-      <c r="V5" s="12" t="str">
+      <c r="V5" s="6" t="str">
         <f t="shared" si="6"/>
         <v>Bilinmir</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="9"/>
+      <c r="B6" s="3"/>
       <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="12" t="str">
+      <c r="D6" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Düzgündür</v>
       </c>
-      <c r="E6" s="9"/>
+      <c r="E6" s="3"/>
       <c r="F6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="12" t="str">
+      <c r="G6" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Düzgündür</v>
       </c>
-      <c r="H6" s="9"/>
+      <c r="H6" s="3"/>
       <c r="I6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="12" t="str">
+      <c r="J6" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Düzgündür</v>
       </c>
-      <c r="K6" s="9"/>
+      <c r="K6" s="3"/>
       <c r="L6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="12" t="str">
+      <c r="M6" s="6" t="str">
         <f t="shared" si="3"/>
         <v>Düzgündür</v>
       </c>
-      <c r="N6" s="9"/>
+      <c r="N6" s="3"/>
       <c r="O6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P6" s="12" t="str">
+      <c r="P6" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Düzgündür</v>
       </c>
-      <c r="Q6" s="9"/>
+      <c r="Q6" s="3"/>
       <c r="R6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S6" s="12" t="str">
+      <c r="S6" s="6" t="str">
         <f t="shared" si="5"/>
         <v>Düzgündür</v>
       </c>
-      <c r="T6" s="9" t="s">
+      <c r="T6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="U6" s="1"/>
-      <c r="V6" s="12" t="str">
+      <c r="V6" s="6" t="str">
         <f t="shared" si="6"/>
         <v>Bilinmir</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="9"/>
+      <c r="B7" s="3"/>
       <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="12" t="str">
+      <c r="D7" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Düzgündür</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="3"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="12" t="str">
+      <c r="G7" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Bilinmir</v>
       </c>
-      <c r="H7" s="9"/>
+      <c r="H7" s="3"/>
       <c r="I7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="12" t="str">
+      <c r="J7" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Düzgündür</v>
       </c>
-      <c r="K7" s="9"/>
+      <c r="K7" s="3"/>
       <c r="L7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="12" t="str">
+      <c r="M7" s="6" t="str">
         <f t="shared" si="3"/>
         <v>Düzgündür</v>
       </c>
-      <c r="N7" s="9"/>
+      <c r="N7" s="3"/>
       <c r="O7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="12" t="str">
+      <c r="P7" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Düzgündür</v>
       </c>
-      <c r="Q7" s="9"/>
+      <c r="Q7" s="3"/>
       <c r="R7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S7" s="12" t="str">
+      <c r="S7" s="6" t="str">
         <f t="shared" si="5"/>
         <v>Düzgündür</v>
       </c>
-      <c r="T7" s="9" t="s">
+      <c r="T7" s="3" t="s">
         <v>14</v>
       </c>
       <c r="U7" s="1"/>
-      <c r="V7" s="12" t="str">
+      <c r="V7" s="6" t="str">
         <f t="shared" si="6"/>
         <v>Bilinmir</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="9"/>
+      <c r="B8" s="3"/>
       <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="12" t="str">
+      <c r="D8" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Düzgündür</v>
       </c>
-      <c r="E8" s="9"/>
+      <c r="E8" s="3"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="12" t="str">
+      <c r="G8" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Bilinmir</v>
       </c>
-      <c r="H8" s="9"/>
+      <c r="H8" s="3"/>
       <c r="I8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="12" t="str">
+      <c r="J8" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Düzgündür</v>
       </c>
-      <c r="K8" s="9"/>
+      <c r="K8" s="3"/>
       <c r="L8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="12" t="str">
+      <c r="M8" s="6" t="str">
         <f t="shared" si="3"/>
         <v>Düzgündür</v>
       </c>
-      <c r="N8" s="9"/>
+      <c r="N8" s="3"/>
       <c r="O8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P8" s="12" t="str">
+      <c r="P8" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Düzgündür</v>
       </c>
-      <c r="Q8" s="9" t="s">
+      <c r="Q8" s="3" t="s">
         <v>20</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S8" s="12" t="str">
+      <c r="S8" s="6" t="str">
         <f t="shared" si="5"/>
         <v>Düzgündür</v>
       </c>
-      <c r="T8" s="9" t="s">
+      <c r="T8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="U8" s="1"/>
-      <c r="V8" s="12" t="str">
+      <c r="V8" s="6" t="str">
         <f t="shared" si="6"/>
         <v>Bilinmir</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="9"/>
+      <c r="B9" s="3"/>
       <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="12" t="str">
+      <c r="D9" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Düzgündür</v>
       </c>
-      <c r="E9" s="9"/>
+      <c r="E9" s="3"/>
       <c r="F9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="12" t="str">
+      <c r="G9" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Düzgündür</v>
       </c>
-      <c r="H9" s="9"/>
+      <c r="H9" s="3"/>
       <c r="I9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="12" t="str">
+      <c r="J9" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Düzgündür</v>
       </c>
-      <c r="K9" s="9"/>
+      <c r="K9" s="3"/>
       <c r="L9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M9" s="12" t="str">
+      <c r="M9" s="6" t="str">
         <f t="shared" si="3"/>
         <v>Düzgündür</v>
       </c>
-      <c r="N9" s="9"/>
+      <c r="N9" s="3"/>
       <c r="O9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P9" s="12" t="str">
+      <c r="P9" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Düzgündür</v>
       </c>
-      <c r="Q9" s="9"/>
+      <c r="Q9" s="3"/>
       <c r="R9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S9" s="12" t="str">
+      <c r="S9" s="6" t="str">
         <f t="shared" si="5"/>
         <v>Düzgündür</v>
       </c>
-      <c r="T9" s="9" t="s">
+      <c r="T9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="U9" s="1"/>
-      <c r="V9" s="12" t="str">
+      <c r="V9" s="6" t="str">
         <f t="shared" si="6"/>
         <v>Bilinmir</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="9"/>
+      <c r="B10" s="3"/>
       <c r="C10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="12" t="str">
+      <c r="D10" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Düzgündür</v>
       </c>
-      <c r="E10" s="9"/>
+      <c r="E10" s="3"/>
       <c r="F10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="12" t="str">
+      <c r="G10" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Düzgündür</v>
       </c>
-      <c r="H10" s="9"/>
+      <c r="H10" s="3"/>
       <c r="I10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="12" t="str">
+      <c r="J10" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Düzgündür</v>
       </c>
-      <c r="K10" s="9"/>
+      <c r="K10" s="3"/>
       <c r="L10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="12" t="str">
+      <c r="M10" s="6" t="str">
         <f t="shared" si="3"/>
         <v>Düzgündür</v>
       </c>
-      <c r="N10" s="9"/>
+      <c r="N10" s="3"/>
       <c r="O10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P10" s="12" t="str">
+      <c r="P10" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Bilinmir</v>
       </c>
-      <c r="Q10" s="9"/>
+      <c r="Q10" s="3"/>
       <c r="R10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S10" s="12" t="str">
+      <c r="S10" s="6" t="str">
         <f t="shared" si="5"/>
         <v>Düzgündür</v>
       </c>
-      <c r="T10" s="9" t="s">
+      <c r="T10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="U10" s="1"/>
-      <c r="V10" s="12" t="str">
+      <c r="V10" s="6" t="str">
         <f t="shared" si="6"/>
         <v>Bilinmir</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="11" t="s">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="9"/>
+      <c r="B11" s="3"/>
       <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="12" t="str">
+      <c r="D11" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Düzgündür</v>
       </c>
-      <c r="E11" s="9"/>
+      <c r="E11" s="3"/>
       <c r="F11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="12" t="str">
+      <c r="G11" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Düzgündür</v>
       </c>
-      <c r="H11" s="9"/>
+      <c r="H11" s="3"/>
       <c r="I11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="12" t="str">
+      <c r="J11" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Düzgündür</v>
       </c>
-      <c r="K11" s="9"/>
+      <c r="K11" s="3"/>
       <c r="L11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M11" s="12" t="str">
+      <c r="M11" s="6" t="str">
         <f t="shared" si="3"/>
         <v>Düzgündür</v>
       </c>
-      <c r="N11" s="9"/>
+      <c r="N11" s="3"/>
       <c r="O11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P11" s="12" t="str">
+      <c r="P11" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Bilinmir</v>
       </c>
-      <c r="Q11" s="9"/>
+      <c r="Q11" s="3"/>
       <c r="R11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S11" s="12" t="str">
+      <c r="S11" s="6" t="str">
         <f t="shared" si="5"/>
         <v>Düzgündür</v>
       </c>
-      <c r="T11" s="9" t="s">
+      <c r="T11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="U11" s="1"/>
-      <c r="V11" s="12" t="str">
+      <c r="V11" s="6" t="str">
         <f t="shared" si="6"/>
         <v>Bilinmir</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="11" t="s">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="9"/>
+      <c r="B12" s="3"/>
       <c r="C12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="12" t="str">
+      <c r="D12" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Düzgündür</v>
       </c>
-      <c r="E12" s="9"/>
+      <c r="E12" s="3"/>
       <c r="F12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="12" t="str">
+      <c r="G12" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Düzgündür</v>
       </c>
-      <c r="H12" s="9"/>
+      <c r="H12" s="3"/>
       <c r="I12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="12" t="str">
+      <c r="J12" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Düzgündür</v>
       </c>
-      <c r="K12" s="9"/>
+      <c r="K12" s="3"/>
       <c r="L12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M12" s="12" t="str">
+      <c r="M12" s="6" t="str">
         <f t="shared" si="3"/>
         <v>Düzgündür</v>
       </c>
-      <c r="N12" s="9"/>
+      <c r="N12" s="3"/>
       <c r="O12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P12" s="12" t="str">
+      <c r="P12" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Düzgündür</v>
       </c>
-      <c r="Q12" s="9"/>
+      <c r="Q12" s="3"/>
       <c r="R12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S12" s="12" t="str">
+      <c r="S12" s="6" t="str">
         <f t="shared" si="5"/>
         <v>Düzgündür</v>
       </c>
-      <c r="T12" s="9" t="s">
+      <c r="T12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="V12" s="12" t="str">
+      <c r="V12" s="6" t="str">
         <f t="shared" si="6"/>
         <v>Düzgündür</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="11" t="s">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="9"/>
+      <c r="B13" s="3"/>
       <c r="C13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="12" t="str">
+      <c r="D13" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Düzgündür</v>
       </c>
-      <c r="E13" s="9"/>
+      <c r="E13" s="3"/>
       <c r="F13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="12" t="str">
+      <c r="G13" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Düzgündür</v>
       </c>
-      <c r="H13" s="9"/>
+      <c r="H13" s="3"/>
       <c r="I13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J13" s="12" t="str">
+      <c r="J13" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Düzgündür</v>
       </c>
-      <c r="K13" s="9"/>
+      <c r="K13" s="3"/>
       <c r="L13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M13" s="12" t="str">
+      <c r="M13" s="6" t="str">
         <f t="shared" si="3"/>
         <v>Düzgündür</v>
       </c>
-      <c r="N13" s="9"/>
+      <c r="N13" s="3"/>
       <c r="O13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P13" s="12" t="str">
+      <c r="P13" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Düzgündür</v>
       </c>
-      <c r="Q13" s="9"/>
+      <c r="Q13" s="3"/>
       <c r="R13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S13" s="12" t="str">
+      <c r="S13" s="6" t="str">
         <f t="shared" si="5"/>
         <v>Düzgündür</v>
       </c>
-      <c r="T13" s="9" t="s">
+      <c r="T13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="V13" s="12" t="str">
+      <c r="V13" s="6" t="str">
         <f t="shared" si="6"/>
         <v>Düzgündür</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="11" t="s">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="12" t="str">
+      <c r="D14" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Bilinmir</v>
       </c>
-      <c r="E14" s="9"/>
+      <c r="E14" s="3"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="12" t="str">
+      <c r="G14" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Bilinmir</v>
       </c>
-      <c r="H14" s="9"/>
+      <c r="H14" s="3"/>
       <c r="I14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J14" s="12" t="str">
+      <c r="J14" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Düzgündür</v>
       </c>
-      <c r="K14" s="9"/>
+      <c r="K14" s="3"/>
       <c r="L14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M14" s="12" t="str">
+      <c r="M14" s="6" t="str">
         <f t="shared" si="3"/>
         <v>Düzgündür</v>
       </c>
-      <c r="N14" s="9"/>
+      <c r="N14" s="3"/>
       <c r="O14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P14" s="12" t="str">
+      <c r="P14" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Bilinmir</v>
       </c>
-      <c r="Q14" s="9"/>
+      <c r="Q14" s="3"/>
       <c r="R14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="S14" s="12" t="str">
+      <c r="S14" s="6" t="str">
         <f t="shared" si="5"/>
         <v>Bilinmir</v>
       </c>
-      <c r="T14" s="9"/>
+      <c r="T14" s="3"/>
       <c r="U14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V14" s="12" t="str">
+      <c r="V14" s="6" t="str">
         <f t="shared" si="6"/>
         <v>Bilinmir</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="11" t="s">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="9"/>
+      <c r="B15" s="3"/>
       <c r="C15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="12" t="str">
+      <c r="D15" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Düzgündür</v>
       </c>
-      <c r="E15" s="9"/>
+      <c r="E15" s="3"/>
       <c r="F15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="12" t="str">
+      <c r="G15" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Düzgündür</v>
       </c>
-      <c r="H15" s="9"/>
+      <c r="H15" s="3"/>
       <c r="I15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J15" s="12" t="str">
+      <c r="J15" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Düzgündür</v>
       </c>
-      <c r="K15" s="9"/>
+      <c r="K15" s="3"/>
       <c r="L15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M15" s="12" t="str">
+      <c r="M15" s="6" t="str">
         <f t="shared" si="3"/>
         <v>Düzgündür</v>
       </c>
-      <c r="N15" s="9"/>
+      <c r="N15" s="3"/>
       <c r="O15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P15" s="12" t="str">
+      <c r="P15" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Düzgündür</v>
       </c>
-      <c r="Q15" s="9"/>
+      <c r="Q15" s="3"/>
       <c r="R15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S15" s="12" t="str">
+      <c r="S15" s="6" t="str">
         <f t="shared" si="5"/>
         <v>Düzgündür</v>
       </c>
-      <c r="T15" s="9" t="s">
+      <c r="T15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="U15" s="1"/>
-      <c r="V15" s="12" t="str">
+      <c r="V15" s="6" t="str">
         <f t="shared" si="6"/>
         <v>Bilinmir</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="11" t="s">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="9"/>
+      <c r="B16" s="3"/>
       <c r="C16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="12" t="str">
+      <c r="D16" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Düzgündür</v>
       </c>
-      <c r="E16" s="9"/>
+      <c r="E16" s="3"/>
       <c r="F16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="12" t="str">
+      <c r="G16" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Düzgündür</v>
       </c>
-      <c r="H16" s="9"/>
+      <c r="H16" s="3"/>
       <c r="I16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="12" t="str">
+      <c r="J16" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Düzgündür</v>
       </c>
-      <c r="K16" s="9"/>
+      <c r="K16" s="3"/>
       <c r="L16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M16" s="12" t="str">
+      <c r="M16" s="6" t="str">
         <f t="shared" si="3"/>
         <v>Düzgündür</v>
       </c>
-      <c r="N16" s="9"/>
+      <c r="N16" s="3"/>
       <c r="O16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P16" s="12" t="str">
+      <c r="P16" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Düzgündür</v>
       </c>
-      <c r="Q16" s="9"/>
+      <c r="Q16" s="3"/>
       <c r="R16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S16" s="12" t="str">
+      <c r="S16" s="6" t="str">
         <f t="shared" si="5"/>
         <v>Düzgündür</v>
       </c>
-      <c r="T16" s="9" t="s">
+      <c r="T16" s="3" t="s">
         <v>13</v>
       </c>
       <c r="U16" s="1"/>
-      <c r="V16" s="12" t="str">
+      <c r="V16" s="6" t="str">
         <f t="shared" si="6"/>
         <v>Bilinmir</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="11" t="s">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="9"/>
+      <c r="B17" s="3"/>
       <c r="C17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="12" t="str">
+      <c r="D17" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Düzgündür</v>
       </c>
-      <c r="E17" s="9"/>
+      <c r="E17" s="3"/>
       <c r="F17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="12" t="str">
+      <c r="G17" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Düzgündür</v>
       </c>
-      <c r="H17" s="9"/>
+      <c r="H17" s="3"/>
       <c r="I17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J17" s="12" t="str">
+      <c r="J17" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Düzgündür</v>
       </c>
-      <c r="K17" s="9"/>
+      <c r="K17" s="3"/>
       <c r="L17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M17" s="12" t="str">
+      <c r="M17" s="6" t="str">
         <f t="shared" si="3"/>
         <v>Düzgündür</v>
       </c>
-      <c r="N17" s="9"/>
+      <c r="N17" s="3"/>
       <c r="O17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P17" s="12" t="str">
+      <c r="P17" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Düzgündür</v>
       </c>
-      <c r="Q17" s="9"/>
+      <c r="Q17" s="3"/>
       <c r="R17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S17" s="12" t="str">
+      <c r="S17" s="6" t="str">
         <f t="shared" si="5"/>
         <v>Düzgündür</v>
       </c>
-      <c r="T17" s="9" t="s">
+      <c r="T17" s="3" t="s">
         <v>13</v>
       </c>
       <c r="U17" s="1"/>
-      <c r="V17" s="12" t="str">
+      <c r="V17" s="6" t="str">
         <f t="shared" si="6"/>
         <v>Bilinmir</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="11" t="s">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="9"/>
+      <c r="B18" s="3"/>
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="12" t="str">
+      <c r="D18" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Düzgündür</v>
       </c>
-      <c r="E18" s="9"/>
+      <c r="E18" s="3"/>
       <c r="F18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="12" t="str">
+      <c r="G18" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Düzgündür</v>
       </c>
-      <c r="H18" s="9"/>
+      <c r="H18" s="3"/>
       <c r="I18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J18" s="12" t="str">
+      <c r="J18" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Düzgündür</v>
       </c>
-      <c r="K18" s="9"/>
+      <c r="K18" s="3"/>
       <c r="L18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M18" s="12" t="str">
+      <c r="M18" s="6" t="str">
         <f t="shared" si="3"/>
         <v>Düzgündür</v>
       </c>
-      <c r="N18" s="9"/>
+      <c r="N18" s="3"/>
       <c r="O18" s="1"/>
-      <c r="P18" s="12" t="str">
+      <c r="P18" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Bilinmir</v>
       </c>
-      <c r="Q18" s="9"/>
+      <c r="Q18" s="3"/>
       <c r="R18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S18" s="12" t="str">
+      <c r="S18" s="6" t="str">
         <f t="shared" si="5"/>
         <v>Düzgündür</v>
       </c>
-      <c r="T18" s="9" t="s">
+      <c r="T18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="U18" s="1"/>
-      <c r="V18" s="12" t="str">
+      <c r="V18" s="6" t="str">
         <f t="shared" si="6"/>
         <v>Bilinmir</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="11" t="s">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="9"/>
+      <c r="B19" s="3"/>
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="12" t="str">
+      <c r="D19" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Düzgündür</v>
       </c>
-      <c r="E19" s="9"/>
+      <c r="E19" s="3"/>
       <c r="F19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="12" t="str">
+      <c r="G19" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Düzgündür</v>
       </c>
-      <c r="H19" s="9"/>
+      <c r="H19" s="3"/>
       <c r="I19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J19" s="12" t="str">
+      <c r="J19" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Düzgündür</v>
       </c>
-      <c r="K19" s="9"/>
+      <c r="K19" s="3"/>
       <c r="L19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M19" s="12" t="str">
+      <c r="M19" s="6" t="str">
         <f t="shared" si="3"/>
         <v>Düzgündür</v>
       </c>
-      <c r="N19" s="9"/>
+      <c r="N19" s="3"/>
       <c r="O19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P19" s="12" t="str">
+      <c r="P19" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Düzgündür</v>
       </c>
-      <c r="Q19" s="9"/>
+      <c r="Q19" s="3"/>
       <c r="R19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S19" s="12" t="str">
+      <c r="S19" s="6" t="str">
         <f t="shared" si="5"/>
         <v>Düzgündür</v>
       </c>
-      <c r="T19" s="9" t="s">
+      <c r="T19" s="3" t="s">
         <v>13</v>
       </c>
       <c r="U19" s="1"/>
-      <c r="V19" s="12" t="str">
+      <c r="V19" s="6" t="str">
         <f t="shared" si="6"/>
         <v>Bilinmir</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="11" t="s">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="9"/>
+      <c r="B20" s="3"/>
       <c r="C20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="12" t="str">
+      <c r="D20" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Düzgündür</v>
       </c>
-      <c r="E20" s="9"/>
+      <c r="E20" s="3"/>
       <c r="F20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="12" t="str">
+      <c r="G20" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Düzgündür</v>
       </c>
-      <c r="H20" s="9"/>
+      <c r="H20" s="3"/>
       <c r="I20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J20" s="12" t="str">
+      <c r="J20" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Düzgündür</v>
       </c>
-      <c r="K20" s="9"/>
+      <c r="K20" s="3"/>
       <c r="L20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M20" s="12" t="str">
+      <c r="M20" s="6" t="str">
         <f t="shared" si="3"/>
         <v>Düzgündür</v>
       </c>
-      <c r="N20" s="9"/>
+      <c r="N20" s="3"/>
       <c r="O20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P20" s="12" t="str">
+      <c r="P20" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Düzgündür</v>
       </c>
-      <c r="Q20" s="9"/>
+      <c r="Q20" s="3"/>
       <c r="R20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S20" s="12" t="str">
+      <c r="S20" s="6" t="str">
         <f t="shared" si="5"/>
         <v>Düzgündür</v>
       </c>
-      <c r="T20" s="9" t="s">
+      <c r="T20" s="3" t="s">
         <v>13</v>
       </c>
       <c r="U20" s="1"/>
-      <c r="V20" s="12" t="str">
+      <c r="V20" s="6" t="str">
         <f t="shared" si="6"/>
         <v>Bilinmir</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="11" t="s">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="9"/>
+      <c r="B21" s="3"/>
       <c r="C21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="12" t="str">
+      <c r="D21" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Düzgündür</v>
       </c>
-      <c r="E21" s="9"/>
+      <c r="E21" s="3"/>
       <c r="F21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="12" t="str">
+      <c r="G21" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Düzgündür</v>
       </c>
-      <c r="H21" s="9"/>
+      <c r="H21" s="3"/>
       <c r="I21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J21" s="12" t="str">
+      <c r="J21" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Düzgündür</v>
       </c>
-      <c r="K21" s="9"/>
+      <c r="K21" s="3"/>
       <c r="L21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M21" s="12" t="str">
+      <c r="M21" s="6" t="str">
         <f t="shared" si="3"/>
         <v>Düzgündür</v>
       </c>
-      <c r="N21" s="9"/>
+      <c r="N21" s="3"/>
       <c r="O21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P21" s="12" t="str">
+      <c r="P21" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Düzgündür</v>
       </c>
-      <c r="Q21" s="9"/>
+      <c r="Q21" s="3"/>
       <c r="R21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S21" s="12" t="str">
+      <c r="S21" s="6" t="str">
         <f t="shared" si="5"/>
         <v>Düzgündür</v>
       </c>
-      <c r="T21" s="9" t="s">
+      <c r="T21" s="3" t="s">
         <v>13</v>
       </c>
       <c r="U21" s="1"/>
-      <c r="V21" s="12" t="str">
+      <c r="V21" s="6" t="str">
         <f t="shared" si="6"/>
         <v>Bilinmir</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="11" t="s">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="9"/>
+      <c r="B22" s="3"/>
       <c r="C22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="12" t="str">
+      <c r="D22" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Düzgündür</v>
       </c>
-      <c r="E22" s="9"/>
+      <c r="E22" s="3"/>
       <c r="F22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="12" t="str">
+      <c r="G22" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Düzgündür</v>
       </c>
-      <c r="H22" s="9"/>
+      <c r="H22" s="3"/>
       <c r="I22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J22" s="12" t="str">
+      <c r="J22" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Düzgündür</v>
       </c>
-      <c r="K22" s="9"/>
+      <c r="K22" s="3"/>
       <c r="L22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M22" s="12" t="str">
+      <c r="M22" s="6" t="str">
         <f t="shared" si="3"/>
         <v>Düzgündür</v>
       </c>
-      <c r="N22" s="9"/>
+      <c r="N22" s="3"/>
       <c r="O22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P22" s="12" t="str">
+      <c r="P22" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Düzgündür</v>
       </c>
-      <c r="Q22" s="9"/>
+      <c r="Q22" s="3"/>
       <c r="R22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S22" s="12" t="str">
+      <c r="S22" s="6" t="str">
         <f t="shared" si="5"/>
         <v>Düzgündür</v>
       </c>
-      <c r="T22" s="9" t="s">
+      <c r="T22" s="3" t="s">
         <v>13</v>
       </c>
       <c r="U22" s="1"/>
-      <c r="V22" s="12" t="str">
+      <c r="V22" s="6" t="str">
         <f t="shared" si="6"/>
         <v>Bilinmir</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="11" t="s">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="9"/>
+      <c r="B23" s="3"/>
       <c r="C23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="12" t="str">
+      <c r="D23" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Düzgündür</v>
       </c>
-      <c r="E23" s="9"/>
+      <c r="E23" s="3"/>
       <c r="F23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="12" t="str">
+      <c r="G23" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Düzgündür</v>
       </c>
-      <c r="H23" s="9"/>
+      <c r="H23" s="3"/>
       <c r="I23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J23" s="12" t="str">
+      <c r="J23" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Düzgündür</v>
       </c>
-      <c r="K23" s="9"/>
+      <c r="K23" s="3"/>
       <c r="L23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M23" s="12" t="str">
+      <c r="M23" s="6" t="str">
         <f t="shared" si="3"/>
         <v>Düzgündür</v>
       </c>
-      <c r="N23" s="9"/>
+      <c r="N23" s="3"/>
       <c r="O23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P23" s="12" t="str">
+      <c r="P23" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Bilinmir</v>
       </c>
-      <c r="Q23" s="9"/>
+      <c r="Q23" s="3"/>
       <c r="R23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S23" s="12" t="str">
+      <c r="S23" s="6" t="str">
         <f t="shared" si="5"/>
         <v>Düzgündür</v>
       </c>
-      <c r="T23" s="9" t="s">
+      <c r="T23" s="3" t="s">
         <v>13</v>
       </c>
       <c r="U23" s="1"/>
-      <c r="V23" s="12" t="str">
+      <c r="V23" s="6" t="str">
         <f t="shared" si="6"/>
         <v>Bilinmir</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="11" t="s">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="9"/>
+      <c r="B24" s="3"/>
       <c r="C24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="12" t="str">
+      <c r="D24" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Düzgündür</v>
       </c>
-      <c r="E24" s="9"/>
+      <c r="E24" s="3"/>
       <c r="F24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="12" t="str">
+      <c r="G24" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Düzgündür</v>
       </c>
-      <c r="H24" s="9"/>
+      <c r="H24" s="3"/>
       <c r="I24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J24" s="12" t="str">
+      <c r="J24" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Düzgündür</v>
       </c>
-      <c r="K24" s="9"/>
+      <c r="K24" s="3"/>
       <c r="L24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M24" s="12" t="str">
+      <c r="M24" s="6" t="str">
         <f t="shared" si="3"/>
         <v>Düzgündür</v>
       </c>
-      <c r="N24" s="9"/>
+      <c r="N24" s="3"/>
       <c r="O24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P24" s="12" t="str">
+      <c r="P24" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Düzgündür</v>
       </c>
-      <c r="Q24" s="9"/>
+      <c r="Q24" s="3"/>
       <c r="R24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S24" s="12" t="str">
+      <c r="S24" s="6" t="str">
         <f t="shared" si="5"/>
         <v>Düzgündür</v>
       </c>
-      <c r="T24" s="9" t="s">
+      <c r="T24" s="3" t="s">
         <v>13</v>
       </c>
       <c r="U24" s="1"/>
-      <c r="V24" s="12" t="str">
+      <c r="V24" s="6" t="str">
         <f t="shared" si="6"/>
         <v>Bilinmir</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="11" t="s">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="9"/>
+      <c r="B25" s="3"/>
       <c r="C25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="12" t="str">
+      <c r="D25" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Düzgündür</v>
       </c>
-      <c r="E25" s="9"/>
+      <c r="E25" s="3"/>
       <c r="F25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="12" t="str">
+      <c r="G25" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Düzgündür</v>
       </c>
-      <c r="H25" s="9"/>
+      <c r="H25" s="3"/>
       <c r="I25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J25" s="12" t="str">
+      <c r="J25" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Düzgündür</v>
       </c>
-      <c r="K25" s="9"/>
+      <c r="K25" s="3"/>
       <c r="L25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M25" s="12" t="str">
+      <c r="M25" s="6" t="str">
         <f t="shared" si="3"/>
         <v>Düzgündür</v>
       </c>
-      <c r="N25" s="9"/>
+      <c r="N25" s="3"/>
       <c r="O25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P25" s="12" t="str">
+      <c r="P25" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Düzgündür</v>
       </c>
-      <c r="Q25" s="9"/>
+      <c r="Q25" s="3"/>
       <c r="R25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S25" s="12" t="str">
+      <c r="S25" s="6" t="str">
         <f t="shared" si="5"/>
         <v>Düzgündür</v>
       </c>
-      <c r="T25" s="9" t="s">
+      <c r="T25" s="3" t="s">
         <v>13</v>
       </c>
       <c r="U25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="V25" s="12" t="str">
+      <c r="V25" s="6" t="str">
         <f t="shared" si="6"/>
         <v>Düzgündür</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="11" t="s">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="9"/>
+      <c r="B26" s="3"/>
       <c r="C26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="12" t="str">
+      <c r="D26" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Düzgündür</v>
       </c>
-      <c r="E26" s="9"/>
+      <c r="E26" s="3"/>
       <c r="F26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="12" t="str">
+      <c r="G26" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Düzgündür</v>
       </c>
-      <c r="H26" s="9"/>
+      <c r="H26" s="3"/>
       <c r="I26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J26" s="12" t="str">
+      <c r="J26" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Düzgündür</v>
       </c>
-      <c r="K26" s="9"/>
+      <c r="K26" s="3"/>
       <c r="L26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M26" s="12" t="str">
+      <c r="M26" s="6" t="str">
         <f t="shared" si="3"/>
         <v>Düzgündür</v>
       </c>
-      <c r="N26" s="9"/>
+      <c r="N26" s="3"/>
       <c r="O26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P26" s="12" t="str">
+      <c r="P26" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Düzgündür</v>
       </c>
-      <c r="Q26" s="9"/>
+      <c r="Q26" s="3"/>
       <c r="R26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S26" s="12" t="str">
+      <c r="S26" s="6" t="str">
         <f t="shared" si="5"/>
         <v>Düzgündür</v>
       </c>
-      <c r="T26" s="9" t="s">
+      <c r="T26" s="3" t="s">
         <v>13</v>
       </c>
       <c r="U26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="V26" s="12" t="str">
+      <c r="V26" s="6" t="str">
         <f t="shared" si="6"/>
         <v>Düzgündür</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="11" t="s">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="9"/>
+      <c r="B27" s="3"/>
       <c r="C27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="12" t="str">
+      <c r="D27" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Düzgündür</v>
       </c>
-      <c r="E27" s="9"/>
+      <c r="E27" s="3"/>
       <c r="F27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="12" t="str">
+      <c r="G27" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Düzgündür</v>
       </c>
-      <c r="H27" s="9"/>
+      <c r="H27" s="3"/>
       <c r="I27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J27" s="12" t="str">
+      <c r="J27" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Düzgündür</v>
       </c>
-      <c r="K27" s="9"/>
+      <c r="K27" s="3"/>
       <c r="L27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M27" s="12" t="str">
+      <c r="M27" s="6" t="str">
         <f t="shared" si="3"/>
         <v>Düzgündür</v>
       </c>
-      <c r="N27" s="9"/>
+      <c r="N27" s="3"/>
       <c r="O27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P27" s="12" t="str">
+      <c r="P27" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Düzgündür</v>
       </c>
-      <c r="Q27" s="9"/>
+      <c r="Q27" s="3"/>
       <c r="R27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S27" s="12" t="str">
+      <c r="S27" s="6" t="str">
         <f t="shared" si="5"/>
         <v>Düzgündür</v>
       </c>
-      <c r="T27" s="9" t="s">
+      <c r="T27" s="3" t="s">
         <v>13</v>
       </c>
       <c r="U27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="V27" s="12" t="str">
+      <c r="V27" s="6" t="str">
         <f t="shared" si="6"/>
         <v>Düzgündür</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="11" t="s">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="9"/>
+      <c r="B28" s="3"/>
       <c r="C28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="12" t="str">
+      <c r="D28" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Düzgündür</v>
       </c>
-      <c r="E28" s="9"/>
+      <c r="E28" s="3"/>
       <c r="F28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="12" t="str">
+      <c r="G28" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Düzgündür</v>
       </c>
-      <c r="H28" s="9"/>
+      <c r="H28" s="3"/>
       <c r="I28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J28" s="12" t="str">
+      <c r="J28" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Düzgündür</v>
       </c>
-      <c r="K28" s="9"/>
+      <c r="K28" s="3"/>
       <c r="L28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M28" s="12" t="str">
+      <c r="M28" s="6" t="str">
         <f t="shared" si="3"/>
         <v>Düzgündür</v>
       </c>
-      <c r="N28" s="9"/>
+      <c r="N28" s="3"/>
       <c r="O28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P28" s="12" t="str">
+      <c r="P28" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Düzgündür</v>
       </c>
-      <c r="Q28" s="9"/>
+      <c r="Q28" s="3"/>
       <c r="R28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S28" s="12" t="str">
+      <c r="S28" s="6" t="str">
         <f t="shared" si="5"/>
         <v>Düzgündür</v>
       </c>
-      <c r="T28" s="9" t="s">
+      <c r="T28" s="3" t="s">
         <v>13</v>
       </c>
       <c r="U28" s="1"/>
-      <c r="V28" s="12" t="str">
+      <c r="V28" s="6" t="str">
         <f t="shared" si="6"/>
         <v>Bilinmir</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="13" t="s">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="16" t="str">
+      <c r="B29" s="8"/>
+      <c r="C29" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Düzgündür</v>
       </c>
-      <c r="E29" s="14"/>
-      <c r="F29" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="16" t="str">
+      <c r="E29" s="8"/>
+      <c r="F29" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="10" t="str">
         <f t="shared" si="1"/>
         <v>Düzgündür</v>
       </c>
-      <c r="H29" s="14"/>
-      <c r="I29" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="J29" s="16" t="str">
+      <c r="H29" s="8"/>
+      <c r="I29" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J29" s="10" t="str">
         <f t="shared" si="2"/>
         <v>Düzgündür</v>
       </c>
-      <c r="K29" s="14"/>
-      <c r="L29" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="M29" s="16" t="str">
+      <c r="K29" s="8"/>
+      <c r="L29" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M29" s="10" t="str">
         <f t="shared" si="3"/>
         <v>Düzgündür</v>
       </c>
-      <c r="N29" s="14"/>
-      <c r="O29" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="P29" s="16" t="str">
+      <c r="N29" s="8"/>
+      <c r="O29" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="P29" s="10" t="str">
         <f t="shared" si="4"/>
         <v>Düzgündür</v>
       </c>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="S29" s="16" t="str">
+      <c r="Q29" s="8"/>
+      <c r="R29" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="S29" s="10" t="str">
         <f t="shared" si="5"/>
         <v>Düzgündür</v>
       </c>
-      <c r="T29" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="U29" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="V29" s="16" t="str">
+      <c r="T29" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="U29" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="V29" s="10" t="str">
         <f t="shared" si="6"/>
         <v>Düzgündür</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="T1:V1"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="T1:V1"/>
   </mergeCells>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{001C005C-0069-46C6-996D-0035005700CF}">
-            <xm:f>"Bilinmir"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFFFC7CE"/>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>D:D</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="10" operator="equal" id="{003E0027-00D0-4807-9B27-001400110082}">
-            <xm:f>"Düzgündür"</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="1"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FF00B050"/>
-                  <bgColor rgb="FF00B050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>D2:D1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{006D002B-000F-4C07-AD2F-00AC000E000F}">
-            <xm:f>"Bilinmir"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFFFC7CE"/>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G:G J:J M:M P:P S:S V:V</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="9" operator="equal" id="{004A0005-001E-4DF3-A9F3-00010024005B}">
-            <xm:f>"Düzgündür"</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="1"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FF00B050"/>
-                  <bgColor rgb="FF00B050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G2:G29</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{00BE00E9-0016-4AEE-95E9-006B000800FE}">
-            <xm:f>"Düzgündür"</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="1"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FF00B050"/>
-                  <bgColor rgb="FF00B050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>J2:J29</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{0071001F-00B3-4E8D-860A-001900D800C3}">
-            <xm:f>"Düzgündür"</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="1"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FF00B050"/>
-                  <bgColor rgb="FF00B050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>M2:M29</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{00540081-00D9-4F5B-9652-008B0092002C}">
-            <xm:f>"Düzgündür"</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="1"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FF00B050"/>
-                  <bgColor rgb="FF00B050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>P2:P29</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{001800FE-000C-4B55-B041-0017009B00ED}">
-            <xm:f>"Düzgündür"</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="1"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FF00B050"/>
-                  <bgColor rgb="FF00B050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>S2:S29</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00B4001A-00F6-446F-A15D-00650039006C}">
-            <xm:f>"Düzgündür"</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="1"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FF00B050"/>
-                  <bgColor rgb="FF00B050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>V2:V29</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+      <formula>"Bilinmir"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D1048576">
+    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
+      <formula>"Düzgündür"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G1048576 J1:J1048576 M1:M1048576 P1:P1048576 S1:S1048576 V1:V1048576">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+      <formula>"Bilinmir"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G29">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+      <formula>"Düzgündür"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J29">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+      <formula>"Düzgündür"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M29">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+      <formula>"Düzgündür"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2:P29">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+      <formula>"Düzgündür"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S2:S29">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+      <formula>"Düzgündür"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V2:V29">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+      <formula>"Düzgündür"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" min="1" max="1" width="13.140625"/>
-    <col bestFit="1" customWidth="1" min="2" max="2" width="13.42578125"/>
-    <col bestFit="1" customWidth="1" min="5" max="5" width="11.85546875"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3067,7 +2849,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3078,7 +2860,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3089,7 +2871,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3097,7 +2879,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3105,7 +2887,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3113,7 +2895,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3121,7 +2903,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3130,482 +2912,454 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00E3006C-00E5-4D0E-81AE-00F200180047}">
-            <xm:f>"Working"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FF00B050"/>
-                  <bgColor rgb="FF00B050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>B:B</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00A3001E-004B-448C-AA41-009100C900CE}">
-            <xm:f>"Not working"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFFFC7CE"/>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>B:B</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"Working"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"Not working"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1">
-    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" min="1" max="1" style="1" width="10.140625"/>
-    <col customWidth="1" min="2" max="2" style="17" width="55"/>
-    <col bestFit="1" customWidth="1" min="3" max="3" style="17" width="45.140625"/>
-    <col customWidth="1" min="4" max="4" style="17" width="45.140625"/>
-    <col min="5" max="5" style="1" width="9.140625"/>
+    <col min="1" max="1" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55" style="11" customWidth="1"/>
+    <col min="3" max="3" width="45.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.140625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" ht="75" hidden="1">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="18" t="s">
+      <c r="D2" s="14"/>
+      <c r="E2" s="12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" ht="42.75">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="18"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="18" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="18"/>
-    </row>
-    <row r="5" ht="45" hidden="1">
-      <c r="A5" s="18" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="18" t="s">
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" hidden="1">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="18" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" hidden="1">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="18" t="s">
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" hidden="1">
-      <c r="A8" s="18" t="s">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="18" t="s">
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" ht="30" hidden="1">
-      <c r="A9" s="18" t="s">
+    <row r="9" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="18" t="s">
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" ht="30" hidden="1">
-      <c r="A10" s="18" t="s">
+    <row r="10" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="18" t="s">
+      <c r="D10" s="14"/>
+      <c r="E10" s="12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="18" t="s">
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="18"/>
-    </row>
-    <row r="12" ht="99.75" hidden="1">
-      <c r="A12" s="18" t="s">
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="18" t="s">
+      <c r="D12" s="14"/>
+      <c r="E12" s="12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" hidden="1">
-      <c r="A13" s="18" t="s">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="18" t="s">
+      <c r="D13" s="14"/>
+      <c r="E13" s="12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="18" t="s">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="18"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="18"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="18"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="18"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="18"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="18"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="18"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="18"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="18"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="18"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="18"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="18"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="18"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="18"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="18"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="18"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="18"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="18"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="18"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="18"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="18"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="18"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="18"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="18"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="18"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="18"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="18"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="18"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="18"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="18"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="18"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="18"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="18"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="18"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="18"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="18"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="18"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="18"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="18"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="18"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="18"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="18"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="18"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="18"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="18"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="18"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="18"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="18"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="18"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="18"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="18"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="18"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="12"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="12"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="12"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="12"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="12"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="12"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="12"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="12"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="12"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="12"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="12"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="12"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="12"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="12"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="12"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="12"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="12"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="12"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="12"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="12"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="12"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="12"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="12"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="12"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="12"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="12"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="12"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="12"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="12"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="12"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="12"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="12"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="12"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="12"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="12"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="12"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="12"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E14">
+  <autoFilter ref="A1:E15" xr:uid="{00000000-0009-0000-0000-000002000000}">
     <filterColumn colId="4">
       <filters blank="1"/>
     </filterColumn>
-    <sortState ref="A2:E44">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E44">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="H9" activeCellId="0" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" min="1" max="1" width="10"/>
-    <col bestFit="1" customWidth="1" min="2" max="2" width="7.7109375"/>
-    <col bestFit="1" customWidth="1" min="3" max="3" width="11"/>
-    <col bestFit="1" customWidth="1" min="5" max="5" width="15.00390625"/>
-    <col bestFit="1" customWidth="1" min="6" max="6" width="11.7109375"/>
-    <col bestFit="1" customWidth="1" min="7" max="7" style="1" width="18.28515625"/>
-    <col customWidth="1" min="8" max="8" width="14.85546875"/>
-    <col bestFit="1" min="10" max="10" width="10.57421875"/>
-    <col customWidth="1" min="11" max="11" width="14.7109375"/>
-    <col bestFit="1" customWidth="1" min="14" max="14" width="10.140625"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1"/>
+    <col min="11" max="11" width="14.7109375" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -3633,31 +3387,30 @@
       <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18" t="s">
+      <c r="K1" s="12"/>
+      <c r="L1" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="Q1" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="R1" s="12" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -3682,32 +3435,32 @@
       <c r="H2" t="s">
         <v>81</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="18" t="s">
+      <c r="L2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="N2" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="P2" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q2" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="R2" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="N2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>88</v>
       </c>
@@ -3727,34 +3480,34 @@
         <v>93</v>
       </c>
       <c r="H3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="K3" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3" s="18" t="s">
+      <c r="N3" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="N3" s="18" t="s">
+      <c r="O3" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="O3" s="18" t="s">
+      <c r="P3" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="P3" s="18" t="s">
+      <c r="Q3" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="Q3" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="R3" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="R3" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>89</v>
       </c>
@@ -3770,417 +3523,255 @@
       <c r="F4" t="s">
         <v>89</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="H4" t="s">
+        <v>89</v>
+      </c>
+      <c r="K4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="N4" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="O4" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="P4" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q4" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="R4" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="L4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>96</v>
       </c>
       <c r="E5" t="s">
         <v>97</v>
       </c>
-      <c r="K5" s="18" t="s">
+      <c r="K5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="N5" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="O5" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="P5" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q5" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="R5" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="L5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="R5" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>98</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="K6" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="L6" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="M6" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="N6" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="O6" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="P6" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q6" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="R6" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="L6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="R6" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>99</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="K7" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="L7" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="M7" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="N7" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="O7" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="P7" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q7" s="18" t="s">
+      <c r="L7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
         <v>100</v>
       </c>
-      <c r="R7" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="D8" t="s">
-        <v>101</v>
-      </c>
-      <c r="K8" s="18" t="s">
+      <c r="K8" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="L8" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="N8" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="O8" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="P8" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q8" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="R8" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25">
-      <c r="K9" s="18" t="s">
+      <c r="L8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="P8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="R8" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K9" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-    </row>
-    <row r="10" ht="14.25">
-      <c r="K10" s="18" t="s">
+      <c r="L9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="R9" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="M10" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="N10" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="O10" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="R10" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25">
+      <c r="L10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="R10" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I18">
         <v>19055</v>
       </c>
       <c r="J18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I19">
         <v>19057</v>
       </c>
       <c r="J19" t="s">
-        <v>103</v>
-      </c>
-      <c r="K19" s="22"/>
-    </row>
-    <row r="20" ht="14.25">
+        <v>102</v>
+      </c>
+      <c r="K19" s="15"/>
+    </row>
+    <row r="20" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I20">
         <v>29522</v>
       </c>
       <c r="J20" t="s">
-        <v>104</v>
-      </c>
-      <c r="K20" s="22"/>
-    </row>
-    <row r="21" ht="14.25">
+        <v>103</v>
+      </c>
+      <c r="K20" s="15"/>
+    </row>
+    <row r="21" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I21">
         <v>29523</v>
       </c>
       <c r="J21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00B70071-003C-43B7-BBA5-00E5003E0085}">
-            <xm:f>"+"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF006100"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFC6EFCE"/>
-                  <bgColor rgb="FFC6EFCE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>L2:R6</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00270036-00F3-4952-B471-00E9005000A3}">
-            <xm:f>"+"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF006100"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFC6EFCE"/>
-                  <bgColor rgb="FFC6EFCE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>L7:R7</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00BB0056-004D-4692-97BC-0068003A0096}">
-            <xm:f>"yoxdur"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C5700"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFFFEB9C"/>
-                  <bgColor rgb="FFFFEB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>L2:R7</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{0083004C-004C-4BA2-A3A3-0085001B007C}">
-            <xm:f>"+"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF006100"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFC6EFCE"/>
-                  <bgColor rgb="FFC6EFCE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>L8:R8</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{005200A5-0096-4420-97C7-0035007700AB}">
-            <xm:f>"yoxdur"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C5700"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFFFEB9C"/>
-                  <bgColor rgb="FFFFEB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>L8:R8</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{003E0087-00F4-439E-8BCD-00C000B7002B}">
-            <xm:f>"+"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF006100"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFC6EFCE"/>
-                  <bgColor rgb="FFC6EFCE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>O3</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00220027-00D3-4222-95DD-004300A40036}">
-            <xm:f>"yoxdur"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C5700"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFFFEB9C"/>
-                  <bgColor rgb="FFFFEB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>O3</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{001C0051-00C6-48A6-8122-003100F000BF}">
-            <xm:f>"+"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF006100"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFC6EFCE"/>
-                  <bgColor rgb="FFC6EFCE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>L9:R9</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{000F00E4-0002-4D98-9450-00CD00AE00E8}">
-            <xm:f>"yoxdur"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C5700"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFFFEB9C"/>
-                  <bgColor rgb="FFFFEB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>L9:R9</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00220053-00E0-415B-A819-00B200D4008A}">
-            <xm:f>"+"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF006100"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFC6EFCE"/>
-                  <bgColor rgb="FFC6EFCE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>L10:R10</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{003F0025-005F-4AC4-8DB6-004B00C000B1}">
-            <xm:f>"yoxdur"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C5700"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFFFEB9C"/>
-                  <bgColor rgb="FFFFEB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>L10:R10</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
+  <conditionalFormatting sqref="L2:R10">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"yoxdur"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"+"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O3">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+      <formula>"+"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+      <formula>"yoxdur"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>